--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/1. XXI-В-28-2-350-1 (Калина 0,35 л.) Часть 1.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/1. XXI-В-28-2-350-1 (Калина 0,35 л.) Часть 1.xlsx
@@ -858,6 +858,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -867,20 +881,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1191,7 +1191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D19" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -1212,29 +1212,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
       <c r="F2" s="39"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1890,12 +1890,12 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="103" t="s">
+      <c r="A35" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="103"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="103"/>
+      <c r="B35" s="97"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="97"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -1904,10 +1904,10 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="100" t="s">
+      <c r="A36" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="100"/>
+      <c r="B36" s="106"/>
       <c r="C36" s="12" t="s">
         <v>15</v>
       </c>
@@ -1922,11 +1922,11 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="98">
+      <c r="A37" s="104">
         <f>A20-F31</f>
         <v>14876392</v>
       </c>
-      <c r="B37" s="99"/>
+      <c r="B37" s="105"/>
       <c r="C37" s="75">
         <f>1-G31</f>
         <v>0.88549952380952379</v>
@@ -1988,8 +1988,8 @@
       <c r="F41" s="59"/>
       <c r="G41" s="59"/>
       <c r="H41" s="59"/>
-      <c r="I41" s="96"/>
-      <c r="J41" s="97"/>
+      <c r="I41" s="102"/>
+      <c r="J41" s="103"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="60"/>
@@ -2083,9 +2083,9 @@
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="1"/>
-      <c r="B51" s="104"/>
-      <c r="C51" s="104"/>
-      <c r="D51" s="105"/>
+      <c r="B51" s="99"/>
+      <c r="C51" s="99"/>
+      <c r="D51" s="100"/>
       <c r="E51" s="65"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2102,8 +2102,8 @@
       <c r="F52" s="59"/>
       <c r="G52" s="59"/>
       <c r="H52" s="59"/>
-      <c r="I52" s="96"/>
-      <c r="J52" s="97"/>
+      <c r="I52" s="102"/>
+      <c r="J52" s="103"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="60"/>
@@ -2114,8 +2114,8 @@
       <c r="F53" s="62"/>
       <c r="G53" s="62"/>
       <c r="H53" s="61"/>
-      <c r="I53" s="101"/>
-      <c r="J53" s="101"/>
+      <c r="I53" s="98"/>
+      <c r="J53" s="98"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="60"/>
@@ -2126,8 +2126,8 @@
       <c r="F54" s="63"/>
       <c r="G54" s="63"/>
       <c r="H54" s="63"/>
-      <c r="I54" s="101"/>
-      <c r="J54" s="101"/>
+      <c r="I54" s="98"/>
+      <c r="J54" s="98"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1"/>
@@ -2140,23 +2140,18 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="B60" s="96"/>
-      <c r="C60" s="97"/>
+      <c r="B60" s="102"/>
+      <c r="C60" s="103"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="96"/>
-      <c r="C67" s="97"/>
+      <c r="B67" s="102"/>
+      <c r="C67" s="103"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A36:B36"/>
@@ -2164,11 +2159,16 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="66" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="37" max="12" man="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/1. XXI-В-28-2-350-1 (Калина 0,35 л.) Часть 1.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/1. XXI-В-28-2-350-1 (Калина 0,35 л.) Часть 1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>№Поз</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>Начальник УРФ                                             А.Д. Гавриленко</t>
+  </si>
+  <si>
+    <t>стоит</t>
   </si>
 </sst>
 </file>
@@ -635,7 +638,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -653,7 +656,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -671,7 +673,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -701,12 +702,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -760,8 +755,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -813,11 +806,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -858,20 +847,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -882,6 +857,56 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1189,10 +1214,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D19" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1212,34 +1240,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="39"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="35"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="16.2" thickBot="1">
@@ -1250,74 +1278,74 @@
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="M3" s="14"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="87"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
     </row>
     <row r="5" spans="1:13" ht="15.6">
-      <c r="A5" s="50">
+      <c r="A5" s="46">
         <v>1</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="48">
         <v>24</v>
       </c>
-      <c r="E5" s="52">
+      <c r="E5" s="48">
         <v>24</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52">
+      <c r="F5" s="47"/>
+      <c r="G5" s="48">
         <f>E5-F5</f>
         <v>24</v>
       </c>
-      <c r="H5" s="88"/>
-      <c r="I5" s="93"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="85"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="83"/>
+      <c r="L5" s="75"/>
     </row>
     <row r="6" spans="1:13" ht="15.6">
-      <c r="A6" s="53">
+      <c r="A6" s="49">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="78" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="9">
@@ -1326,26 +1354,26 @@
       <c r="E6" s="9">
         <v>24</v>
       </c>
-      <c r="F6" s="25"/>
+      <c r="F6" s="23"/>
       <c r="G6" s="9">
         <f t="shared" ref="G6:G15" si="0">E6-F6</f>
         <v>24</v>
       </c>
-      <c r="H6" s="89"/>
-      <c r="I6" s="93"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="85"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="83"/>
+      <c r="L6" s="75"/>
     </row>
     <row r="7" spans="1:13" ht="15.6">
-      <c r="A7" s="53">
+      <c r="A7" s="49">
         <f t="shared" ref="A7:A16" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="78" t="s">
         <v>34</v>
       </c>
       <c r="D7" s="9">
@@ -1354,26 +1382,26 @@
       <c r="E7" s="9">
         <v>32</v>
       </c>
-      <c r="F7" s="25"/>
+      <c r="F7" s="23"/>
       <c r="G7" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H7" s="90"/>
-      <c r="I7" s="93"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="85"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="83"/>
+      <c r="L7" s="75"/>
     </row>
     <row r="8" spans="1:13" ht="15.6">
-      <c r="A8" s="53">
+      <c r="A8" s="49">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="78" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="9">
@@ -1382,26 +1410,26 @@
       <c r="E8" s="9">
         <v>32</v>
       </c>
-      <c r="F8" s="25"/>
+      <c r="F8" s="23"/>
       <c r="G8" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H8" s="90"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="63"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="57"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="83"/>
+      <c r="L8" s="75"/>
     </row>
     <row r="9" spans="1:13" ht="15.6">
-      <c r="A9" s="53">
+      <c r="A9" s="49">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="78" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="9">
@@ -1410,26 +1438,26 @@
       <c r="E9" s="9">
         <v>0</v>
       </c>
-      <c r="F9" s="25"/>
+      <c r="F9" s="23"/>
       <c r="G9" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9" s="90"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="83"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="75"/>
     </row>
     <row r="10" spans="1:13" ht="15.6">
-      <c r="A10" s="53">
+      <c r="A10" s="49">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="78" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="9">
@@ -1438,26 +1466,26 @@
       <c r="E10" s="9">
         <v>0</v>
       </c>
-      <c r="F10" s="25"/>
+      <c r="F10" s="23"/>
       <c r="G10" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="90"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="63"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="57"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="83"/>
+      <c r="L10" s="75"/>
     </row>
     <row r="11" spans="1:13" ht="15.6">
-      <c r="A11" s="53">
+      <c r="A11" s="49">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="78" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="9">
@@ -1466,27 +1494,27 @@
       <c r="E11" s="9">
         <v>60</v>
       </c>
-      <c r="F11" s="37"/>
+      <c r="F11" s="33"/>
       <c r="G11" s="9">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H11" s="90"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="35"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="31"/>
     </row>
     <row r="12" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A12" s="53">
+      <c r="A12" s="49">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="86" t="s">
+      <c r="C12" s="78" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="9">
@@ -1495,27 +1523,27 @@
       <c r="E12" s="9">
         <v>0</v>
       </c>
-      <c r="F12" s="38"/>
+      <c r="F12" s="34"/>
       <c r="G12" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="90"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="35"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="31"/>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A13" s="53">
+      <c r="A13" s="49">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="86" t="s">
+      <c r="C13" s="78" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="9">
@@ -1524,28 +1552,28 @@
       <c r="E13" s="9">
         <v>0</v>
       </c>
-      <c r="F13" s="25"/>
+      <c r="F13" s="23"/>
       <c r="G13" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="90" t="s">
+      <c r="H13" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="94"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="83"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="75"/>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1">
-      <c r="A14" s="53">
+      <c r="A14" s="49">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="78" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="9">
@@ -1554,65 +1582,65 @@
       <c r="E14" s="9">
         <v>50</v>
       </c>
-      <c r="F14" s="37"/>
+      <c r="F14" s="33"/>
       <c r="G14" s="9">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H14" s="90"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="83"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="75"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1">
-      <c r="A15" s="53">
+      <c r="A15" s="49">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="85" t="s">
+      <c r="C15" s="77" t="s">
         <v>34</v>
       </c>
       <c r="D15" s="9">
         <v>60</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="12">
         <v>60</v>
       </c>
-      <c r="F15" s="25"/>
+      <c r="F15" s="23"/>
       <c r="G15" s="9">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H15" s="90"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="83"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="75"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A16" s="53">
+      <c r="A16" s="49">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="81"/>
+      <c r="B16" s="73"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="25"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="23"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="83"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="75"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="67"/>
-      <c r="B17" s="66"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1624,258 +1652,277 @@
     </row>
     <row r="18" spans="1:12" ht="16.2" thickBot="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
     </row>
     <row r="19" spans="1:12" ht="66.599999999999994" thickBot="1">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="45" t="s">
+      <c r="D19" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="45" t="s">
+      <c r="E19" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="45" t="s">
+      <c r="F19" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="46" t="s">
+      <c r="G19" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="47" t="s">
+      <c r="H19" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="48" t="s">
+      <c r="I19" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="74">
+      <c r="A20" s="68">
         <f>E5*700000</f>
         <v>16800000</v>
       </c>
-      <c r="B20" s="78">
+      <c r="B20" s="71">
         <v>43696</v>
       </c>
-      <c r="C20" s="78">
+      <c r="C20" s="71">
         <v>43705</v>
       </c>
-      <c r="D20" s="76">
+      <c r="D20" s="70">
         <v>43710</v>
       </c>
-      <c r="E20" s="77">
+      <c r="E20" s="105">
         <v>1820497</v>
       </c>
-      <c r="F20" s="77">
+      <c r="F20" s="105">
         <v>1923608</v>
       </c>
-      <c r="G20" s="43">
+      <c r="G20" s="100">
         <f t="shared" ref="G20" si="2">F20/A$20</f>
         <v>0.11450047619047619</v>
       </c>
-      <c r="H20" s="79">
+      <c r="H20" s="102">
         <f>A20-F20</f>
         <v>14876392</v>
       </c>
-      <c r="I20" s="80">
+      <c r="I20" s="72">
         <f>1-G20</f>
         <v>0.88549952380952379</v>
       </c>
-      <c r="J20" s="71"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A21" s="49"/>
-      <c r="B21" s="76"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="80"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="70">
+        <v>43731</v>
+      </c>
+      <c r="C21" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="70">
+        <v>43739</v>
+      </c>
+      <c r="E21" s="105">
+        <v>1542618</v>
+      </c>
+      <c r="F21" s="105">
+        <v>1630498</v>
+      </c>
+      <c r="G21" s="100">
+        <f>F21/A$20</f>
+        <v>9.7053452380952379E-2</v>
+      </c>
+      <c r="H21" s="101">
+        <f t="shared" ref="H21:I21" si="3">H20-F21</f>
+        <v>13245894</v>
+      </c>
+      <c r="I21" s="28">
+        <f t="shared" si="3"/>
+        <v>0.78844607142857137</v>
+      </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A22" s="15"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="15"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="15"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="72"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="66"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="15"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="15"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="15"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="15"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="71"/>
-      <c r="K28" s="71"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="15"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="65"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="32"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="30"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="55">
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="109">
         <f>SUM(E20:E30)</f>
-        <v>1820497</v>
-      </c>
-      <c r="F31" s="54">
+        <v>3363115</v>
+      </c>
+      <c r="F31" s="110">
         <f>SUM(F20:F30)</f>
-        <v>1923608</v>
-      </c>
-      <c r="G31" s="27">
+        <v>3554106</v>
+      </c>
+      <c r="G31" s="25">
         <f>SUM(G20:G30)</f>
-        <v>0.11450047619047619</v>
-      </c>
-      <c r="H31" s="23">
+        <v>0.21155392857142857</v>
+      </c>
+      <c r="H31" s="21">
         <f>A20-F31</f>
-        <v>14876392</v>
-      </c>
-      <c r="I31" s="36">
+        <v>13245894</v>
+      </c>
+      <c r="I31" s="32">
         <f>1-G31</f>
-        <v>0.88549952380952379</v>
-      </c>
-      <c r="J31" s="73"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="73"/>
+        <v>0.78844607142857148</v>
+      </c>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="67"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1"/>
@@ -1890,12 +1937,12 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="97" t="s">
+      <c r="A35" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="97"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="97"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="95"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -1904,14 +1951,14 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="106" t="s">
+      <c r="A36" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="106"/>
-      <c r="C36" s="12" t="s">
+      <c r="B36" s="92"/>
+      <c r="C36" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E36" s="1"/>
@@ -1922,27 +1969,27 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="104">
+      <c r="A37" s="90">
         <f>A20-F31</f>
-        <v>14876392</v>
-      </c>
-      <c r="B37" s="105"/>
-      <c r="C37" s="75">
+        <v>13245894</v>
+      </c>
+      <c r="B37" s="91"/>
+      <c r="C37" s="69">
         <f>1-G31</f>
-        <v>0.88549952380952379</v>
-      </c>
-      <c r="D37" s="24">
+        <v>0.78844607142857148</v>
+      </c>
+      <c r="D37" s="22">
         <f>(C37/0.8)*100</f>
-        <v>110.68744047619046</v>
-      </c>
-      <c r="E37" s="95" t="s">
+        <v>98.555758928571436</v>
+      </c>
+      <c r="E37" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="95"/>
-      <c r="G37" s="95"/>
-      <c r="H37" s="95"/>
-      <c r="I37" s="95"/>
-      <c r="J37" s="95"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="87"/>
+      <c r="H37" s="87"/>
+      <c r="I37" s="87"/>
+      <c r="J37" s="87"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1"/>
@@ -1980,113 +2027,113 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="59"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="102"/>
-      <c r="J41" s="103"/>
+      <c r="A41" s="53"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="88"/>
+      <c r="J41" s="89"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="60"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
+      <c r="A42" s="54"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="55"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="61"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="55"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="60"/>
-      <c r="B43" s="61"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="61"/>
+      <c r="A43" s="54"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="55"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="60"/>
-      <c r="B44" s="61"/>
-      <c r="C44" s="61"/>
+      <c r="A44" s="54"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="55"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="61"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="55"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="60"/>
-      <c r="B45" s="61"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="61"/>
+      <c r="A45" s="54"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="55"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="60"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="61"/>
+      <c r="A46" s="54"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="55"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="62"/>
-      <c r="H46" s="61"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="55"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="60"/>
-      <c r="B47" s="61"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="63"/>
-      <c r="H47" s="63"/>
+      <c r="A47" s="54"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="57"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="60"/>
-      <c r="B48" s="61"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="61"/>
+      <c r="A48" s="54"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="55"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="60"/>
-      <c r="B49" s="61"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="62"/>
-      <c r="H49" s="61"/>
+      <c r="A49" s="54"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="55"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="60"/>
-      <c r="B50" s="61"/>
-      <c r="C50" s="61"/>
+      <c r="A50" s="54"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="55"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="62"/>
-      <c r="H50" s="61"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="55"/>
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="1"/>
-      <c r="B51" s="99"/>
-      <c r="C51" s="99"/>
-      <c r="D51" s="100"/>
-      <c r="E51" s="65"/>
+      <c r="B51" s="96"/>
+      <c r="C51" s="96"/>
+      <c r="D51" s="97"/>
+      <c r="E51" s="59"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -2094,40 +2141,40 @@
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="59"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="59"/>
-      <c r="H52" s="59"/>
-      <c r="I52" s="102"/>
-      <c r="J52" s="103"/>
+      <c r="A52" s="53"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="88"/>
+      <c r="J52" s="89"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="60"/>
+      <c r="A53" s="54"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="62"/>
-      <c r="G53" s="62"/>
-      <c r="H53" s="61"/>
-      <c r="I53" s="98"/>
-      <c r="J53" s="98"/>
+      <c r="F53" s="56"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="93"/>
+      <c r="J53" s="93"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="60"/>
+      <c r="A54" s="54"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="63"/>
-      <c r="E54" s="63"/>
-      <c r="F54" s="63"/>
-      <c r="G54" s="63"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="98"/>
-      <c r="J54" s="98"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="93"/>
+      <c r="J54" s="93"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1"/>
@@ -2140,18 +2187,23 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="B60" s="102"/>
-      <c r="C60" s="103"/>
+      <c r="B60" s="88"/>
+      <c r="C60" s="89"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="102"/>
-      <c r="C67" s="103"/>
+      <c r="B67" s="88"/>
+      <c r="C67" s="89"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A36:B36"/>
@@ -2159,16 +2211,11 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="66" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="94" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="37" max="12" man="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/1. XXI-В-28-2-350-1 (Калина 0,35 л.) Часть 1.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/1. XXI-В-28-2-350-1 (Калина 0,35 л.) Часть 1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>№Поз</t>
   </si>
@@ -847,6 +847,56 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -857,56 +907,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1220,7 +1220,7 @@
   <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="G21" sqref="G21:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1240,29 +1240,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
       <c r="F2" s="35"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1712,17 +1712,17 @@
       <c r="D20" s="70">
         <v>43710</v>
       </c>
-      <c r="E20" s="105">
+      <c r="E20" s="94">
         <v>1820497</v>
       </c>
-      <c r="F20" s="105">
+      <c r="F20" s="94">
         <v>1923608</v>
       </c>
-      <c r="G20" s="100">
+      <c r="G20" s="89">
         <f t="shared" ref="G20" si="2">F20/A$20</f>
         <v>0.11450047619047619</v>
       </c>
-      <c r="H20" s="102">
+      <c r="H20" s="91">
         <f>A20-F20</f>
         <v>14876392</v>
       </c>
@@ -1745,17 +1745,17 @@
       <c r="D21" s="70">
         <v>43739</v>
       </c>
-      <c r="E21" s="105">
+      <c r="E21" s="94">
         <v>1542618</v>
       </c>
-      <c r="F21" s="105">
+      <c r="F21" s="94">
         <v>1630498</v>
       </c>
-      <c r="G21" s="100">
+      <c r="G21" s="89">
         <f>F21/A$20</f>
         <v>9.7053452380952379E-2</v>
       </c>
-      <c r="H21" s="101">
+      <c r="H21" s="90">
         <f t="shared" ref="H21:I21" si="3">H20-F21</f>
         <v>13245894</v>
       </c>
@@ -1769,14 +1769,33 @@
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1">
       <c r="A22" s="14"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="72"/>
+      <c r="B22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="10">
+        <v>43748</v>
+      </c>
+      <c r="D22" s="10">
+        <v>43752</v>
+      </c>
+      <c r="E22" s="90">
+        <v>1981511</v>
+      </c>
+      <c r="F22" s="90">
+        <v>2047806</v>
+      </c>
+      <c r="G22" s="89">
+        <f>F22/A$20</f>
+        <v>0.12189321428571429</v>
+      </c>
+      <c r="H22" s="90">
+        <f t="shared" ref="H22" si="4">H21-F22</f>
+        <v>11198088</v>
+      </c>
+      <c r="I22" s="28">
+        <f t="shared" ref="I22" si="5">I21-G22</f>
+        <v>0.66655285714285706</v>
+      </c>
       <c r="J22" s="65"/>
       <c r="K22" s="57"/>
       <c r="L22" s="57"/>
@@ -1786,10 +1805,10 @@
       <c r="B23" s="74"/>
       <c r="C23" s="74"/>
       <c r="D23" s="74"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="106"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
       <c r="G23" s="39"/>
-      <c r="H23" s="103"/>
+      <c r="H23" s="92"/>
       <c r="I23" s="72"/>
       <c r="J23" s="65"/>
       <c r="K23" s="65"/>
@@ -1800,10 +1819,10 @@
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
       <c r="G24" s="26"/>
-      <c r="H24" s="103"/>
+      <c r="H24" s="92"/>
       <c r="I24" s="72"/>
       <c r="J24" s="65"/>
       <c r="K24" s="66"/>
@@ -1814,10 +1833,10 @@
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="101"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
       <c r="G25" s="26"/>
-      <c r="H25" s="103"/>
+      <c r="H25" s="92"/>
       <c r="I25" s="72"/>
       <c r="J25" s="65"/>
       <c r="K25" s="65"/>
@@ -1828,10 +1847,10 @@
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="101"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
       <c r="G26" s="26"/>
-      <c r="H26" s="103"/>
+      <c r="H26" s="92"/>
       <c r="I26" s="72"/>
       <c r="J26" s="65"/>
       <c r="K26" s="65"/>
@@ -1842,10 +1861,10 @@
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="101"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
       <c r="G27" s="26"/>
-      <c r="H27" s="99"/>
+      <c r="H27" s="88"/>
       <c r="I27" s="28"/>
       <c r="J27" s="65"/>
       <c r="K27" s="65"/>
@@ -1856,10 +1875,10 @@
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="101"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="90"/>
       <c r="G28" s="27"/>
-      <c r="H28" s="99"/>
+      <c r="H28" s="88"/>
       <c r="I28" s="29"/>
       <c r="J28" s="65"/>
       <c r="K28" s="65"/>
@@ -1870,10 +1889,10 @@
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="101"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="90"/>
       <c r="G29" s="26"/>
-      <c r="H29" s="99"/>
+      <c r="H29" s="88"/>
       <c r="I29" s="29"/>
       <c r="J29" s="65"/>
       <c r="K29" s="65"/>
@@ -1884,10 +1903,10 @@
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="17"/>
-      <c r="E30" s="107"/>
-      <c r="F30" s="108"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="97"/>
       <c r="G30" s="24"/>
-      <c r="H30" s="104"/>
+      <c r="H30" s="93"/>
       <c r="I30" s="30"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -1900,25 +1919,25 @@
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
       <c r="D31" s="20"/>
-      <c r="E31" s="109">
+      <c r="E31" s="98">
         <f>SUM(E20:E30)</f>
-        <v>3363115</v>
-      </c>
-      <c r="F31" s="110">
+        <v>5344626</v>
+      </c>
+      <c r="F31" s="99">
         <f>SUM(F20:F30)</f>
-        <v>3554106</v>
+        <v>5601912</v>
       </c>
       <c r="G31" s="25">
         <f>SUM(G20:G30)</f>
-        <v>0.21155392857142857</v>
+        <v>0.33344714285714283</v>
       </c>
       <c r="H31" s="21">
         <f>A20-F31</f>
-        <v>13245894</v>
+        <v>11198088</v>
       </c>
       <c r="I31" s="32">
         <f>1-G31</f>
-        <v>0.78844607142857148</v>
+        <v>0.66655285714285717</v>
       </c>
       <c r="J31" s="67"/>
       <c r="K31" s="67"/>
@@ -1937,12 +1956,12 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="95" t="s">
+      <c r="A35" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="95"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="95"/>
+      <c r="B35" s="101"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="101"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -1951,10 +1970,10 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="92" t="s">
+      <c r="A36" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="92"/>
+      <c r="B36" s="110"/>
       <c r="C36" s="11" t="s">
         <v>15</v>
       </c>
@@ -1969,18 +1988,18 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="90">
+      <c r="A37" s="108">
         <f>A20-F31</f>
-        <v>13245894</v>
-      </c>
-      <c r="B37" s="91"/>
+        <v>11198088</v>
+      </c>
+      <c r="B37" s="109"/>
       <c r="C37" s="69">
         <f>1-G31</f>
-        <v>0.78844607142857148</v>
+        <v>0.66655285714285717</v>
       </c>
       <c r="D37" s="22">
         <f>(C37/0.8)*100</f>
-        <v>98.555758928571436</v>
+        <v>83.319107142857135</v>
       </c>
       <c r="E37" s="87" t="s">
         <v>37</v>
@@ -2035,8 +2054,8 @@
       <c r="F41" s="53"/>
       <c r="G41" s="53"/>
       <c r="H41" s="53"/>
-      <c r="I41" s="88"/>
-      <c r="J41" s="89"/>
+      <c r="I41" s="106"/>
+      <c r="J41" s="107"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="54"/>
@@ -2130,9 +2149,9 @@
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="1"/>
-      <c r="B51" s="96"/>
-      <c r="C51" s="96"/>
-      <c r="D51" s="97"/>
+      <c r="B51" s="103"/>
+      <c r="C51" s="103"/>
+      <c r="D51" s="104"/>
       <c r="E51" s="59"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2149,8 +2168,8 @@
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
       <c r="H52" s="53"/>
-      <c r="I52" s="88"/>
-      <c r="J52" s="89"/>
+      <c r="I52" s="106"/>
+      <c r="J52" s="107"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="54"/>
@@ -2161,8 +2180,8 @@
       <c r="F53" s="56"/>
       <c r="G53" s="56"/>
       <c r="H53" s="55"/>
-      <c r="I53" s="93"/>
-      <c r="J53" s="93"/>
+      <c r="I53" s="102"/>
+      <c r="J53" s="102"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="54"/>
@@ -2173,8 +2192,8 @@
       <c r="F54" s="57"/>
       <c r="G54" s="57"/>
       <c r="H54" s="57"/>
-      <c r="I54" s="93"/>
-      <c r="J54" s="93"/>
+      <c r="I54" s="102"/>
+      <c r="J54" s="102"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1"/>
@@ -2187,23 +2206,18 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="B60" s="88"/>
-      <c r="C60" s="89"/>
+      <c r="B60" s="106"/>
+      <c r="C60" s="107"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="88"/>
-      <c r="C67" s="89"/>
+      <c r="B67" s="106"/>
+      <c r="C67" s="107"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A36:B36"/>
@@ -2211,6 +2225,11 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/1. XXI-В-28-2-350-1 (Калина 0,35 л.) Часть 1.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/1. XXI-В-28-2-350-1 (Калина 0,35 л.) Часть 1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>№Поз</t>
   </si>
@@ -638,7 +638,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -649,7 +649,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -669,10 +668,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -685,23 +680,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -723,9 +707,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -815,13 +796,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -847,40 +824,45 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -888,25 +870,50 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1219,8 +1226,8 @@
   </sheetPr>
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21:I22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1240,34 +1247,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="35"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="27"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="16.2" thickBot="1">
@@ -1278,369 +1285,369 @@
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="M3" s="13"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="79"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
     </row>
     <row r="5" spans="1:13" ht="15.6">
-      <c r="A5" s="46">
+      <c r="A5" s="37">
         <v>1</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="48">
+      <c r="D5" s="39">
         <v>24</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="39">
         <v>24</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48">
+      <c r="F5" s="38"/>
+      <c r="G5" s="39">
         <f>E5-F5</f>
         <v>24</v>
       </c>
-      <c r="H5" s="80"/>
-      <c r="I5" s="85"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="72"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="75"/>
+      <c r="L5" s="65"/>
     </row>
     <row r="6" spans="1:13" ht="15.6">
-      <c r="A6" s="49">
+      <c r="A6" s="40">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>24</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>24</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="9">
+      <c r="F6" s="20"/>
+      <c r="G6" s="8">
         <f t="shared" ref="G6:G15" si="0">E6-F6</f>
         <v>24</v>
       </c>
-      <c r="H6" s="81"/>
-      <c r="I6" s="85"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="72"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="75"/>
+      <c r="L6" s="65"/>
     </row>
     <row r="7" spans="1:13" ht="15.6">
-      <c r="A7" s="49">
+      <c r="A7" s="40">
         <f t="shared" ref="A7:A16" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>32</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>32</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="9">
+      <c r="F7" s="20"/>
+      <c r="G7" s="8">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H7" s="82"/>
-      <c r="I7" s="85"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="72"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="75"/>
+      <c r="L7" s="65"/>
     </row>
     <row r="8" spans="1:13" ht="15.6">
-      <c r="A8" s="49">
+      <c r="A8" s="40">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>32</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>32</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="9">
+      <c r="F8" s="20"/>
+      <c r="G8" s="8">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H8" s="82"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="57"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="48"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="75"/>
+      <c r="L8" s="65"/>
     </row>
     <row r="9" spans="1:13" ht="15.6">
-      <c r="A9" s="49">
+      <c r="A9" s="40">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>0</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>0</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="9">
+      <c r="F9" s="20"/>
+      <c r="G9" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9" s="82"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="75"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="65"/>
     </row>
     <row r="10" spans="1:13" ht="15.6">
-      <c r="A10" s="49">
+      <c r="A10" s="40">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="78" t="s">
+      <c r="C10" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>0</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>0</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="9">
+      <c r="F10" s="20"/>
+      <c r="G10" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="82"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="57"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="48"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="75"/>
+      <c r="L10" s="65"/>
     </row>
     <row r="11" spans="1:13" ht="15.6">
-      <c r="A11" s="49">
+      <c r="A11" s="40">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>60</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>60</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="9">
+      <c r="F11" s="25"/>
+      <c r="G11" s="8">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H11" s="82"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="31"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="23"/>
     </row>
     <row r="12" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A12" s="49">
+      <c r="A12" s="40">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>0</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>0</v>
       </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="9">
+      <c r="F12" s="26"/>
+      <c r="G12" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="82"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="31"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="23"/>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A13" s="49">
+      <c r="A13" s="40">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>0</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>0</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="9">
+      <c r="F13" s="20"/>
+      <c r="G13" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="82" t="s">
+      <c r="H13" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="86"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="75"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="65"/>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1">
-      <c r="A14" s="49">
+      <c r="A14" s="40">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="78" t="s">
+      <c r="C14" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>50</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>50</v>
       </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="9">
+      <c r="F14" s="25"/>
+      <c r="G14" s="8">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H14" s="82"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="75"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="65"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1">
-      <c r="A15" s="49">
+      <c r="A15" s="40">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="77" t="s">
+      <c r="C15" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>60</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="11">
         <v>60</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="9">
+      <c r="F15" s="20"/>
+      <c r="G15" s="8">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H15" s="82"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="75"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="65"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A16" s="49">
+      <c r="A16" s="40">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="75"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="65"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="61"/>
-      <c r="B17" s="60"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1652,114 +1659,114 @@
     </row>
     <row r="18" spans="1:12" ht="16.2" thickBot="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
     </row>
     <row r="19" spans="1:12" ht="66.599999999999994" thickBot="1">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="41" t="s">
+      <c r="E19" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="41" t="s">
+      <c r="F19" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="42" t="s">
+      <c r="G19" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="43" t="s">
+      <c r="H19" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="44" t="s">
+      <c r="I19" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="68">
+      <c r="A20" s="59">
         <f>E5*700000</f>
         <v>16800000</v>
       </c>
-      <c r="B20" s="71">
+      <c r="B20" s="62">
         <v>43696</v>
       </c>
-      <c r="C20" s="71">
+      <c r="C20" s="62">
         <v>43705</v>
       </c>
-      <c r="D20" s="70">
+      <c r="D20" s="61">
         <v>43710</v>
       </c>
-      <c r="E20" s="94">
+      <c r="E20" s="78">
         <v>1820497</v>
       </c>
-      <c r="F20" s="94">
+      <c r="F20" s="78">
         <v>1923608</v>
       </c>
-      <c r="G20" s="89">
+      <c r="G20" s="75">
         <f t="shared" ref="G20" si="2">F20/A$20</f>
         <v>0.11450047619047619</v>
       </c>
-      <c r="H20" s="91">
+      <c r="H20" s="77">
         <f>A20-F20</f>
         <v>14876392</v>
       </c>
-      <c r="I20" s="72">
+      <c r="I20" s="63">
         <f>1-G20</f>
         <v>0.88549952380952379</v>
       </c>
-      <c r="J20" s="65"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A21" s="45"/>
-      <c r="B21" s="70">
+      <c r="A21" s="36"/>
+      <c r="B21" s="61">
         <v>43731</v>
       </c>
-      <c r="C21" s="71" t="s">
+      <c r="C21" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="70">
+      <c r="D21" s="61">
         <v>43739</v>
       </c>
-      <c r="E21" s="94">
+      <c r="E21" s="78">
         <v>1542618</v>
       </c>
-      <c r="F21" s="94">
+      <c r="F21" s="78">
         <v>1630498</v>
       </c>
-      <c r="G21" s="89">
+      <c r="G21" s="75">
         <f>F21/A$20</f>
         <v>9.7053452380952379E-2</v>
       </c>
-      <c r="H21" s="90">
+      <c r="H21" s="76">
         <f t="shared" ref="H21:I21" si="3">H20-F21</f>
         <v>13245894</v>
       </c>
-      <c r="I21" s="28">
+      <c r="I21" s="22">
         <f t="shared" si="3"/>
         <v>0.78844607142857137</v>
       </c>
@@ -1768,180 +1775,199 @@
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A22" s="14"/>
-      <c r="B22" s="10" t="s">
+      <c r="A22" s="13"/>
+      <c r="B22" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="9">
         <v>43748</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <v>43752</v>
       </c>
-      <c r="E22" s="90">
+      <c r="E22" s="76">
         <v>1981511</v>
       </c>
-      <c r="F22" s="90">
+      <c r="F22" s="76">
         <v>2047806</v>
       </c>
-      <c r="G22" s="89">
+      <c r="G22" s="75">
         <f>F22/A$20</f>
         <v>0.12189321428571429</v>
       </c>
-      <c r="H22" s="90">
+      <c r="H22" s="76">
         <f t="shared" ref="H22" si="4">H21-F22</f>
         <v>11198088</v>
       </c>
-      <c r="I22" s="28">
+      <c r="I22" s="22">
         <f t="shared" ref="I22" si="5">I21-G22</f>
         <v>0.66655285714285706</v>
       </c>
-      <c r="J22" s="65"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="14"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="95">
+        <v>43794</v>
+      </c>
+      <c r="C23" s="95" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="95">
+        <v>43801</v>
+      </c>
+      <c r="E23" s="79">
+        <v>1132292</v>
+      </c>
+      <c r="F23" s="79">
+        <v>1222524</v>
+      </c>
+      <c r="G23" s="75">
+        <f>F23/A$20</f>
+        <v>7.2769285714285717E-2</v>
+      </c>
+      <c r="H23" s="76">
+        <f t="shared" ref="H23" si="6">H22-F23</f>
+        <v>9975564</v>
+      </c>
+      <c r="I23" s="22">
+        <f t="shared" ref="I23" si="7">I22-G23</f>
+        <v>0.5937835714285713</v>
+      </c>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="14"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="66"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="57"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="14"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="14"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="14"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="14"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="14"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="97"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="30"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="104"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="98">
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="82">
         <f>SUM(E20:E30)</f>
-        <v>5344626</v>
-      </c>
-      <c r="F31" s="99">
+        <v>6476918</v>
+      </c>
+      <c r="F31" s="83">
         <f>SUM(F20:F30)</f>
-        <v>5601912</v>
-      </c>
-      <c r="G31" s="25">
+        <v>6824436</v>
+      </c>
+      <c r="G31" s="21">
         <f>SUM(G20:G30)</f>
-        <v>0.33344714285714283</v>
-      </c>
-      <c r="H31" s="21">
+        <v>0.40621642857142853</v>
+      </c>
+      <c r="H31" s="18">
         <f>A20-F31</f>
-        <v>11198088</v>
-      </c>
-      <c r="I31" s="32">
+        <v>9975564</v>
+      </c>
+      <c r="I31" s="24">
         <f>1-G31</f>
-        <v>0.66655285714285717</v>
-      </c>
-      <c r="J31" s="67"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="67"/>
+        <v>0.59378357142857152</v>
+      </c>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1"/>
@@ -1956,12 +1982,12 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="101" t="s">
+      <c r="A35" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="101"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -1970,14 +1996,14 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="110" t="s">
+      <c r="A36" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="110"/>
-      <c r="C36" s="11" t="s">
+      <c r="B36" s="88"/>
+      <c r="C36" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E36" s="1"/>
@@ -1988,27 +2014,27 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="108">
+      <c r="A37" s="86">
         <f>A20-F31</f>
-        <v>11198088</v>
-      </c>
-      <c r="B37" s="109"/>
-      <c r="C37" s="69">
+        <v>9975564</v>
+      </c>
+      <c r="B37" s="87"/>
+      <c r="C37" s="60">
         <f>1-G31</f>
-        <v>0.66655285714285717</v>
-      </c>
-      <c r="D37" s="22">
+        <v>0.59378357142857152</v>
+      </c>
+      <c r="D37" s="19">
         <f>(C37/0.8)*100</f>
-        <v>83.319107142857135</v>
-      </c>
-      <c r="E37" s="87" t="s">
+        <v>74.222946428571433</v>
+      </c>
+      <c r="E37" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="87"/>
-      <c r="G37" s="87"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
-      <c r="J37" s="87"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="74"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1"/>
@@ -2046,113 +2072,113 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="53"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="106"/>
-      <c r="J41" s="107"/>
+      <c r="A41" s="44"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="84"/>
+      <c r="J41" s="85"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="54"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="55"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="46"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="54"/>
-      <c r="B43" s="55"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="55"/>
+      <c r="A43" s="45"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="46"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="54"/>
-      <c r="B44" s="55"/>
-      <c r="C44" s="55"/>
+      <c r="A44" s="45"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="55"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="46"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="54"/>
-      <c r="B45" s="55"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="55"/>
+      <c r="A45" s="45"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="46"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="54"/>
-      <c r="B46" s="55"/>
-      <c r="C46" s="55"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="56"/>
-      <c r="H46" s="55"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="46"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="54"/>
-      <c r="B47" s="55"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="57"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="54"/>
-      <c r="B48" s="55"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="55"/>
+      <c r="A48" s="45"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="46"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="54"/>
-      <c r="B49" s="55"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="55"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="46"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="54"/>
-      <c r="B50" s="55"/>
-      <c r="C50" s="55"/>
+      <c r="A50" s="45"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="46"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="55"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="46"/>
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="1"/>
-      <c r="B51" s="103"/>
-      <c r="C51" s="103"/>
-      <c r="D51" s="104"/>
-      <c r="E51" s="59"/>
+      <c r="B51" s="92"/>
+      <c r="C51" s="92"/>
+      <c r="D51" s="93"/>
+      <c r="E51" s="50"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -2160,40 +2186,40 @@
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="53"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="106"/>
-      <c r="J52" s="107"/>
+      <c r="A52" s="44"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="84"/>
+      <c r="J52" s="85"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="54"/>
+      <c r="A53" s="45"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="56"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="55"/>
-      <c r="I53" s="102"/>
-      <c r="J53" s="102"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="89"/>
+      <c r="J53" s="89"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="54"/>
+      <c r="A54" s="45"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="102"/>
-      <c r="J54" s="102"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="89"/>
+      <c r="J54" s="89"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1"/>
@@ -2206,18 +2232,23 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="B60" s="106"/>
-      <c r="C60" s="107"/>
+      <c r="B60" s="84"/>
+      <c r="C60" s="85"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="106"/>
-      <c r="C67" s="107"/>
+      <c r="B67" s="84"/>
+      <c r="C67" s="85"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A36:B36"/>
@@ -2225,11 +2256,6 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/1. XXI-В-28-2-350-1 (Калина 0,35 л.) Часть 1.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/1. XXI-В-28-2-350-1 (Калина 0,35 л.) Часть 1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>№Поз</t>
   </si>
@@ -851,18 +851,43 @@
     <xf numFmtId="3" fontId="12" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -870,50 +895,25 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1226,8 +1226,8 @@
   </sheetPr>
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1247,29 +1247,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
       <c r="F2" s="27"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1324,7 +1324,7 @@
       <c r="B5" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="105" t="s">
+      <c r="C5" s="94" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="39">
@@ -1352,7 +1352,7 @@
       <c r="B6" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="106" t="s">
+      <c r="C6" s="95" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="8">
@@ -1380,7 +1380,7 @@
       <c r="B7" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="106" t="s">
+      <c r="C7" s="95" t="s">
         <v>34</v>
       </c>
       <c r="D7" s="8">
@@ -1408,7 +1408,7 @@
       <c r="B8" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="106" t="s">
+      <c r="C8" s="95" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="8">
@@ -1436,7 +1436,7 @@
       <c r="B9" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="95" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="8">
@@ -1464,7 +1464,7 @@
       <c r="B10" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="106" t="s">
+      <c r="C10" s="95" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="8">
@@ -1492,7 +1492,7 @@
       <c r="B11" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="106" t="s">
+      <c r="C11" s="95" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="8">
@@ -1521,7 +1521,7 @@
       <c r="B12" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="106" t="s">
+      <c r="C12" s="95" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="8">
@@ -1550,7 +1550,7 @@
       <c r="B13" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="106" t="s">
+      <c r="C13" s="95" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="8">
@@ -1580,7 +1580,7 @@
       <c r="B14" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="106" t="s">
+      <c r="C14" s="95" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="8">
@@ -1608,7 +1608,7 @@
       <c r="B15" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="107" t="s">
+      <c r="C15" s="96" t="s">
         <v>34</v>
       </c>
       <c r="D15" s="8">
@@ -1809,13 +1809,13 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="13"/>
-      <c r="B23" s="95">
+      <c r="B23" s="84">
         <v>43794</v>
       </c>
-      <c r="C23" s="95" t="s">
+      <c r="C23" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="95">
+      <c r="D23" s="84">
         <v>43801</v>
       </c>
       <c r="E23" s="79">
@@ -1842,26 +1842,45 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="13"/>
-      <c r="B24" s="95"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="96"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="63"/>
+      <c r="B24" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="84">
+        <v>43808</v>
+      </c>
+      <c r="D24" s="84">
+        <v>43816</v>
+      </c>
+      <c r="E24" s="76">
+        <v>1804915</v>
+      </c>
+      <c r="F24" s="76">
+        <v>1859301</v>
+      </c>
+      <c r="G24" s="85">
+        <f>F24/A$20</f>
+        <v>0.11067267857142857</v>
+      </c>
+      <c r="H24" s="76">
+        <f t="shared" ref="H24" si="8">H23-F24</f>
+        <v>8116263</v>
+      </c>
+      <c r="I24" s="22">
+        <f t="shared" ref="I24" si="9">I23-G24</f>
+        <v>0.4831108928571427</v>
+      </c>
       <c r="J24" s="56"/>
       <c r="K24" s="57"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="13"/>
-      <c r="B25" s="95"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="95"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
       <c r="E25" s="76"/>
       <c r="F25" s="76"/>
-      <c r="G25" s="96"/>
+      <c r="G25" s="85"/>
       <c r="H25" s="77"/>
       <c r="I25" s="63"/>
       <c r="J25" s="56"/>
@@ -1870,12 +1889,12 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="13"/>
-      <c r="B26" s="95"/>
-      <c r="C26" s="95"/>
-      <c r="D26" s="95"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
       <c r="E26" s="76"/>
       <c r="F26" s="76"/>
-      <c r="G26" s="96"/>
+      <c r="G26" s="85"/>
       <c r="H26" s="77"/>
       <c r="I26" s="63"/>
       <c r="J26" s="56"/>
@@ -1884,12 +1903,12 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="13"/>
-      <c r="B27" s="95"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
       <c r="E27" s="76"/>
       <c r="F27" s="76"/>
-      <c r="G27" s="96"/>
+      <c r="G27" s="85"/>
       <c r="H27" s="76"/>
       <c r="I27" s="22"/>
       <c r="J27" s="56"/>
@@ -1898,42 +1917,42 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="13"/>
-      <c r="B28" s="95"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="97"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="86"/>
       <c r="E28" s="79"/>
       <c r="F28" s="76"/>
-      <c r="G28" s="98"/>
+      <c r="G28" s="87"/>
       <c r="H28" s="76"/>
-      <c r="I28" s="99"/>
+      <c r="I28" s="88"/>
       <c r="J28" s="56"/>
       <c r="K28" s="56"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="13"/>
-      <c r="B29" s="95"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="97"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="86"/>
       <c r="E29" s="79"/>
       <c r="F29" s="76"/>
-      <c r="G29" s="96"/>
+      <c r="G29" s="85"/>
       <c r="H29" s="76"/>
-      <c r="I29" s="99"/>
+      <c r="I29" s="88"/>
       <c r="J29" s="56"/>
       <c r="K29" s="56"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" ht="13.8" thickBot="1">
       <c r="A30" s="14"/>
-      <c r="B30" s="100"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="101"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="90"/>
       <c r="E30" s="80"/>
       <c r="F30" s="81"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="104"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="93"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -1947,23 +1966,23 @@
       <c r="D31" s="17"/>
       <c r="E31" s="82">
         <f>SUM(E20:E30)</f>
-        <v>6476918</v>
+        <v>8281833</v>
       </c>
       <c r="F31" s="83">
         <f>SUM(F20:F30)</f>
-        <v>6824436</v>
+        <v>8683737</v>
       </c>
       <c r="G31" s="21">
         <f>SUM(G20:G30)</f>
-        <v>0.40621642857142853</v>
+        <v>0.51688910714285707</v>
       </c>
       <c r="H31" s="18">
         <f>A20-F31</f>
-        <v>9975564</v>
+        <v>8116263</v>
       </c>
       <c r="I31" s="24">
         <f>1-G31</f>
-        <v>0.59378357142857152</v>
+        <v>0.48311089285714293</v>
       </c>
       <c r="J31" s="58"/>
       <c r="K31" s="58"/>
@@ -1982,12 +2001,12 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="91" t="s">
+      <c r="A35" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="98"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -1996,10 +2015,10 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="88" t="s">
+      <c r="A36" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="88"/>
+      <c r="B36" s="107"/>
       <c r="C36" s="10" t="s">
         <v>15</v>
       </c>
@@ -2014,18 +2033,18 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="86">
+      <c r="A37" s="105">
         <f>A20-F31</f>
-        <v>9975564</v>
-      </c>
-      <c r="B37" s="87"/>
+        <v>8116263</v>
+      </c>
+      <c r="B37" s="106"/>
       <c r="C37" s="60">
         <f>1-G31</f>
-        <v>0.59378357142857152</v>
+        <v>0.48311089285714293</v>
       </c>
       <c r="D37" s="19">
         <f>(C37/0.8)*100</f>
-        <v>74.222946428571433</v>
+        <v>60.388861607142864</v>
       </c>
       <c r="E37" s="74" t="s">
         <v>37</v>
@@ -2080,8 +2099,8 @@
       <c r="F41" s="44"/>
       <c r="G41" s="44"/>
       <c r="H41" s="44"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="85"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="104"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="45"/>
@@ -2175,9 +2194,9 @@
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="1"/>
-      <c r="B51" s="92"/>
-      <c r="C51" s="92"/>
-      <c r="D51" s="93"/>
+      <c r="B51" s="100"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="101"/>
       <c r="E51" s="50"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2194,8 +2213,8 @@
       <c r="F52" s="44"/>
       <c r="G52" s="44"/>
       <c r="H52" s="44"/>
-      <c r="I52" s="84"/>
-      <c r="J52" s="85"/>
+      <c r="I52" s="103"/>
+      <c r="J52" s="104"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="45"/>
@@ -2206,8 +2225,8 @@
       <c r="F53" s="47"/>
       <c r="G53" s="47"/>
       <c r="H53" s="46"/>
-      <c r="I53" s="89"/>
-      <c r="J53" s="89"/>
+      <c r="I53" s="99"/>
+      <c r="J53" s="99"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="45"/>
@@ -2218,8 +2237,8 @@
       <c r="F54" s="48"/>
       <c r="G54" s="48"/>
       <c r="H54" s="48"/>
-      <c r="I54" s="89"/>
-      <c r="J54" s="89"/>
+      <c r="I54" s="99"/>
+      <c r="J54" s="99"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1"/>
@@ -2232,23 +2251,18 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="B60" s="84"/>
-      <c r="C60" s="85"/>
+      <c r="B60" s="103"/>
+      <c r="C60" s="104"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="84"/>
-      <c r="C67" s="85"/>
+      <c r="B67" s="103"/>
+      <c r="C67" s="104"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A36:B36"/>
@@ -2256,6 +2270,11 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/1. XXI-В-28-2-350-1 (Калина 0,35 л.) Часть 1.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/1. XXI-В-28-2-350-1 (Калина 0,35 л.) Часть 1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>№Поз</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>стоит</t>
+  </si>
+  <si>
+    <t>Вес, гр. (ном. 255 гр.)</t>
   </si>
 </sst>
 </file>
@@ -638,7 +641,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -889,6 +892,21 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1226,8 +1244,8 @@
   </sheetPr>
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1247,29 +1265,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
       <c r="F2" s="27"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1501,10 +1519,12 @@
       <c r="E11" s="8">
         <v>60</v>
       </c>
-      <c r="F11" s="25"/>
+      <c r="F11" s="25">
+        <v>10</v>
+      </c>
       <c r="G11" s="8">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H11" s="69"/>
       <c r="I11" s="73"/>
@@ -1617,10 +1637,12 @@
       <c r="E15" s="11">
         <v>60</v>
       </c>
-      <c r="F15" s="20"/>
+      <c r="F15" s="20">
+        <v>5</v>
+      </c>
       <c r="G15" s="8">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H15" s="69"/>
       <c r="I15" s="73"/>
@@ -1701,7 +1723,9 @@
       <c r="I19" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="55"/>
+      <c r="J19" s="35" t="s">
+        <v>39</v>
+      </c>
       <c r="K19" s="55"/>
       <c r="L19" s="55"/>
     </row>
@@ -1737,7 +1761,7 @@
         <f>1-G20</f>
         <v>0.88549952380952379</v>
       </c>
-      <c r="J20" s="56"/>
+      <c r="J20" s="97"/>
       <c r="K20" s="48"/>
       <c r="L20" s="48"/>
     </row>
@@ -1770,7 +1794,7 @@
         <f t="shared" si="3"/>
         <v>0.78844607142857137</v>
       </c>
-      <c r="J21" s="1"/>
+      <c r="J21" s="98"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
@@ -1803,7 +1827,7 @@
         <f t="shared" ref="I22" si="5">I21-G22</f>
         <v>0.66655285714285706</v>
       </c>
-      <c r="J22" s="56"/>
+      <c r="J22" s="98"/>
       <c r="K22" s="48"/>
       <c r="L22" s="48"/>
     </row>
@@ -1836,7 +1860,7 @@
         <f t="shared" ref="I23" si="7">I22-G23</f>
         <v>0.5937835714285713</v>
       </c>
-      <c r="J23" s="56"/>
+      <c r="J23" s="98"/>
       <c r="K23" s="56"/>
       <c r="L23" s="1"/>
     </row>
@@ -1869,21 +1893,42 @@
         <f t="shared" ref="I24" si="9">I23-G24</f>
         <v>0.4831108928571427</v>
       </c>
-      <c r="J24" s="56"/>
+      <c r="J24" s="98"/>
       <c r="K24" s="57"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="13"/>
-      <c r="B25" s="84"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="56"/>
+      <c r="B25" s="84">
+        <v>43851</v>
+      </c>
+      <c r="C25" s="84">
+        <v>43858</v>
+      </c>
+      <c r="D25" s="84">
+        <v>43859</v>
+      </c>
+      <c r="E25" s="76">
+        <v>1633513</v>
+      </c>
+      <c r="F25" s="76">
+        <v>1685369</v>
+      </c>
+      <c r="G25" s="85">
+        <f>F25/A$20</f>
+        <v>0.10031958333333334</v>
+      </c>
+      <c r="H25" s="76">
+        <f t="shared" ref="H25" si="10">H24-F25</f>
+        <v>6430894</v>
+      </c>
+      <c r="I25" s="22">
+        <f t="shared" ref="I25" si="11">I24-G25</f>
+        <v>0.38279130952380935</v>
+      </c>
+      <c r="J25" s="98">
+        <v>249</v>
+      </c>
       <c r="K25" s="56"/>
       <c r="L25" s="1"/>
     </row>
@@ -1897,7 +1942,7 @@
       <c r="G26" s="85"/>
       <c r="H26" s="77"/>
       <c r="I26" s="63"/>
-      <c r="J26" s="56"/>
+      <c r="J26" s="97"/>
       <c r="K26" s="56"/>
       <c r="L26" s="1"/>
     </row>
@@ -1911,7 +1956,7 @@
       <c r="G27" s="85"/>
       <c r="H27" s="76"/>
       <c r="I27" s="22"/>
-      <c r="J27" s="56"/>
+      <c r="J27" s="98"/>
       <c r="K27" s="56"/>
       <c r="L27" s="1"/>
     </row>
@@ -1925,7 +1970,7 @@
       <c r="G28" s="87"/>
       <c r="H28" s="76"/>
       <c r="I28" s="88"/>
-      <c r="J28" s="56"/>
+      <c r="J28" s="99"/>
       <c r="K28" s="56"/>
       <c r="L28" s="1"/>
     </row>
@@ -1939,7 +1984,7 @@
       <c r="G29" s="85"/>
       <c r="H29" s="76"/>
       <c r="I29" s="88"/>
-      <c r="J29" s="56"/>
+      <c r="J29" s="99"/>
       <c r="K29" s="56"/>
       <c r="L29" s="1"/>
     </row>
@@ -1953,7 +1998,7 @@
       <c r="G30" s="91"/>
       <c r="H30" s="92"/>
       <c r="I30" s="93"/>
-      <c r="J30" s="1"/>
+      <c r="J30" s="100"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
@@ -1966,25 +2011,25 @@
       <c r="D31" s="17"/>
       <c r="E31" s="82">
         <f>SUM(E20:E30)</f>
-        <v>8281833</v>
+        <v>9915346</v>
       </c>
       <c r="F31" s="83">
         <f>SUM(F20:F30)</f>
-        <v>8683737</v>
+        <v>10369106</v>
       </c>
       <c r="G31" s="21">
         <f>SUM(G20:G30)</f>
-        <v>0.51688910714285707</v>
+        <v>0.61720869047619042</v>
       </c>
       <c r="H31" s="18">
         <f>A20-F31</f>
-        <v>8116263</v>
+        <v>6430894</v>
       </c>
       <c r="I31" s="24">
         <f>1-G31</f>
-        <v>0.48311089285714293</v>
-      </c>
-      <c r="J31" s="58"/>
+        <v>0.38279130952380958</v>
+      </c>
+      <c r="J31" s="101"/>
       <c r="K31" s="58"/>
       <c r="L31" s="58"/>
     </row>
@@ -2001,12 +2046,12 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="98" t="s">
+      <c r="A35" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="98"/>
-      <c r="C35" s="98"/>
-      <c r="D35" s="98"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2015,10 +2060,10 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="107" t="s">
+      <c r="A36" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="107"/>
+      <c r="B36" s="112"/>
       <c r="C36" s="10" t="s">
         <v>15</v>
       </c>
@@ -2033,18 +2078,18 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="105">
+      <c r="A37" s="110">
         <f>A20-F31</f>
-        <v>8116263</v>
-      </c>
-      <c r="B37" s="106"/>
+        <v>6430894</v>
+      </c>
+      <c r="B37" s="111"/>
       <c r="C37" s="60">
         <f>1-G31</f>
-        <v>0.48311089285714293</v>
+        <v>0.38279130952380958</v>
       </c>
       <c r="D37" s="19">
         <f>(C37/0.8)*100</f>
-        <v>60.388861607142864</v>
+        <v>47.848913690476195</v>
       </c>
       <c r="E37" s="74" t="s">
         <v>37</v>
@@ -2099,8 +2144,8 @@
       <c r="F41" s="44"/>
       <c r="G41" s="44"/>
       <c r="H41" s="44"/>
-      <c r="I41" s="103"/>
-      <c r="J41" s="104"/>
+      <c r="I41" s="108"/>
+      <c r="J41" s="109"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="45"/>
@@ -2194,9 +2239,9 @@
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="1"/>
-      <c r="B51" s="100"/>
-      <c r="C51" s="100"/>
-      <c r="D51" s="101"/>
+      <c r="B51" s="105"/>
+      <c r="C51" s="105"/>
+      <c r="D51" s="106"/>
       <c r="E51" s="50"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2213,8 +2258,8 @@
       <c r="F52" s="44"/>
       <c r="G52" s="44"/>
       <c r="H52" s="44"/>
-      <c r="I52" s="103"/>
-      <c r="J52" s="104"/>
+      <c r="I52" s="108"/>
+      <c r="J52" s="109"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="45"/>
@@ -2225,8 +2270,8 @@
       <c r="F53" s="47"/>
       <c r="G53" s="47"/>
       <c r="H53" s="46"/>
-      <c r="I53" s="99"/>
-      <c r="J53" s="99"/>
+      <c r="I53" s="104"/>
+      <c r="J53" s="104"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="45"/>
@@ -2237,8 +2282,8 @@
       <c r="F54" s="48"/>
       <c r="G54" s="48"/>
       <c r="H54" s="48"/>
-      <c r="I54" s="99"/>
-      <c r="J54" s="99"/>
+      <c r="I54" s="104"/>
+      <c r="J54" s="104"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1"/>
@@ -2251,12 +2296,12 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="B60" s="103"/>
-      <c r="C60" s="104"/>
+      <c r="B60" s="108"/>
+      <c r="C60" s="109"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="103"/>
-      <c r="C67" s="104"/>
+      <c r="B67" s="108"/>
+      <c r="C67" s="109"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/1. XXI-В-28-2-350-1 (Калина 0,35 л.) Часть 1.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/1. XXI-В-28-2-350-1 (Калина 0,35 л.) Часть 1.xlsx
@@ -908,29 +908,29 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1245,7 +1245,7 @@
   <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1265,29 +1265,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
       <c r="F2" s="27"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -2046,12 +2046,12 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="103" t="s">
+      <c r="A35" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="103"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="103"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="109"/>
+      <c r="D35" s="109"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2060,10 +2060,10 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="112" t="s">
+      <c r="A36" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="112"/>
+      <c r="B36" s="106"/>
       <c r="C36" s="10" t="s">
         <v>15</v>
       </c>
@@ -2078,11 +2078,11 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="110">
+      <c r="A37" s="104">
         <f>A20-F31</f>
         <v>6430894</v>
       </c>
-      <c r="B37" s="111"/>
+      <c r="B37" s="105"/>
       <c r="C37" s="60">
         <f>1-G31</f>
         <v>0.38279130952380958</v>
@@ -2144,8 +2144,8 @@
       <c r="F41" s="44"/>
       <c r="G41" s="44"/>
       <c r="H41" s="44"/>
-      <c r="I41" s="108"/>
-      <c r="J41" s="109"/>
+      <c r="I41" s="102"/>
+      <c r="J41" s="103"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="45"/>
@@ -2239,9 +2239,9 @@
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="1"/>
-      <c r="B51" s="105"/>
-      <c r="C51" s="105"/>
-      <c r="D51" s="106"/>
+      <c r="B51" s="110"/>
+      <c r="C51" s="110"/>
+      <c r="D51" s="111"/>
       <c r="E51" s="50"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2258,8 +2258,8 @@
       <c r="F52" s="44"/>
       <c r="G52" s="44"/>
       <c r="H52" s="44"/>
-      <c r="I52" s="108"/>
-      <c r="J52" s="109"/>
+      <c r="I52" s="102"/>
+      <c r="J52" s="103"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="45"/>
@@ -2270,8 +2270,8 @@
       <c r="F53" s="47"/>
       <c r="G53" s="47"/>
       <c r="H53" s="46"/>
-      <c r="I53" s="104"/>
-      <c r="J53" s="104"/>
+      <c r="I53" s="107"/>
+      <c r="J53" s="107"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="45"/>
@@ -2282,8 +2282,8 @@
       <c r="F54" s="48"/>
       <c r="G54" s="48"/>
       <c r="H54" s="48"/>
-      <c r="I54" s="104"/>
-      <c r="J54" s="104"/>
+      <c r="I54" s="107"/>
+      <c r="J54" s="107"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1"/>
@@ -2296,18 +2296,23 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="B60" s="108"/>
-      <c r="C60" s="109"/>
+      <c r="B60" s="102"/>
+      <c r="C60" s="103"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="108"/>
-      <c r="C67" s="109"/>
+      <c r="B67" s="102"/>
+      <c r="C67" s="103"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A36:B36"/>
@@ -2315,11 +2320,6 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/1. XXI-В-28-2-350-1 (Калина 0,35 л.) Часть 1.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/1. XXI-В-28-2-350-1 (Калина 0,35 л.) Часть 1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>№Поз</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>Вес, гр. (ном. 255 гр.)</t>
+  </si>
+  <si>
+    <t>65 новых</t>
   </si>
 </sst>
 </file>
@@ -157,7 +160,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -254,16 +257,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
@@ -641,7 +634,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -693,12 +686,6 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -731,9 +718,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -766,8 +750,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -884,13 +868,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -906,6 +890,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1245,7 +1235,7 @@
   <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1265,34 +1255,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="27"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="25"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="16.2" thickBot="1">
@@ -1303,74 +1293,74 @@
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
       <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="66"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
     </row>
     <row r="5" spans="1:13" ht="15.6">
-      <c r="A5" s="37">
+      <c r="A5" s="35">
         <v>1</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="36">
         <v>24</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="36">
         <v>24</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39">
+      <c r="F5" s="99"/>
+      <c r="G5" s="36">
         <f>E5-F5</f>
         <v>24</v>
       </c>
-      <c r="H5" s="67"/>
-      <c r="I5" s="72"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="69"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="65"/>
+      <c r="L5" s="62"/>
     </row>
     <row r="6" spans="1:13" ht="15.6">
-      <c r="A6" s="40">
+      <c r="A6" s="37">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="92" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="8">
@@ -1379,26 +1369,26 @@
       <c r="E6" s="8">
         <v>24</v>
       </c>
-      <c r="F6" s="20"/>
+      <c r="F6" s="100"/>
       <c r="G6" s="8">
         <f t="shared" ref="G6:G15" si="0">E6-F6</f>
         <v>24</v>
       </c>
-      <c r="H6" s="68"/>
-      <c r="I6" s="72"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="69"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="65"/>
+      <c r="L6" s="62"/>
     </row>
     <row r="7" spans="1:13" ht="15.6">
-      <c r="A7" s="40">
+      <c r="A7" s="37">
         <f t="shared" ref="A7:A16" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="92" t="s">
         <v>34</v>
       </c>
       <c r="D7" s="8">
@@ -1407,26 +1397,26 @@
       <c r="E7" s="8">
         <v>32</v>
       </c>
-      <c r="F7" s="20"/>
+      <c r="F7" s="100"/>
       <c r="G7" s="8">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H7" s="69"/>
-      <c r="I7" s="72"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="69"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="65"/>
+      <c r="L7" s="62"/>
     </row>
     <row r="8" spans="1:13" ht="15.6">
-      <c r="A8" s="40">
+      <c r="A8" s="37">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="92" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="8">
@@ -1435,26 +1425,26 @@
       <c r="E8" s="8">
         <v>32</v>
       </c>
-      <c r="F8" s="20"/>
+      <c r="F8" s="100"/>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H8" s="69"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="48"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="45"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="65"/>
+      <c r="L8" s="62"/>
     </row>
     <row r="9" spans="1:13" ht="15.6">
-      <c r="A9" s="40">
+      <c r="A9" s="37">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="92" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="8">
@@ -1463,26 +1453,26 @@
       <c r="E9" s="8">
         <v>0</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="F9" s="100"/>
       <c r="G9" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9" s="69"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="65"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="62"/>
     </row>
     <row r="10" spans="1:13" ht="15.6">
-      <c r="A10" s="40">
+      <c r="A10" s="37">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="95" t="s">
+      <c r="C10" s="92" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="8">
@@ -1491,57 +1481,59 @@
       <c r="E10" s="8">
         <v>0</v>
       </c>
-      <c r="F10" s="20"/>
+      <c r="F10" s="100"/>
       <c r="G10" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="69"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="48"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="45"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="65"/>
+      <c r="L10" s="62"/>
     </row>
     <row r="11" spans="1:13" ht="15.6">
-      <c r="A11" s="40">
+      <c r="A11" s="37">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="95" t="s">
+      <c r="C11" s="92" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="8">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="E11" s="8">
-        <v>60</v>
-      </c>
-      <c r="F11" s="25">
-        <v>10</v>
+        <v>120</v>
+      </c>
+      <c r="F11" s="100">
+        <v>31</v>
       </c>
       <c r="G11" s="8">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="H11" s="69"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="65"/>
+        <v>89</v>
+      </c>
+      <c r="H11" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="70"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="62"/>
       <c r="M11" s="23"/>
     </row>
     <row r="12" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A12" s="40">
+      <c r="A12" s="37">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="95" t="s">
+      <c r="C12" s="92" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="8">
@@ -1550,27 +1542,27 @@
       <c r="E12" s="8">
         <v>0</v>
       </c>
-      <c r="F12" s="26"/>
+      <c r="F12" s="100"/>
       <c r="G12" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="69"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="65"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="62"/>
       <c r="M12" s="23"/>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A13" s="40">
+      <c r="A13" s="37">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="95" t="s">
+      <c r="C13" s="92" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="8">
@@ -1579,28 +1571,28 @@
       <c r="E13" s="8">
         <v>0</v>
       </c>
-      <c r="F13" s="20"/>
+      <c r="F13" s="100"/>
       <c r="G13" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="69" t="s">
+      <c r="H13" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="73"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="65"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="62"/>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1">
-      <c r="A14" s="40">
+      <c r="A14" s="37">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="95" t="s">
+      <c r="C14" s="92" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="8">
@@ -1609,26 +1601,26 @@
       <c r="E14" s="8">
         <v>50</v>
       </c>
-      <c r="F14" s="25"/>
+      <c r="F14" s="100"/>
       <c r="G14" s="8">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H14" s="69"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="65"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="62"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1">
-      <c r="A15" s="40">
+      <c r="A15" s="37">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="96" t="s">
+      <c r="C15" s="93" t="s">
         <v>34</v>
       </c>
       <c r="D15" s="8">
@@ -1637,39 +1629,39 @@
       <c r="E15" s="11">
         <v>60</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="100">
         <v>5</v>
       </c>
       <c r="G15" s="8">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="H15" s="69"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="65"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="62"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A16" s="40">
+      <c r="A16" s="37">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="64"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="11"/>
       <c r="F16" s="20"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="65"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="62"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="52"/>
-      <c r="B17" s="51"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1681,7 +1673,7 @@
     </row>
     <row r="18" spans="1:12" ht="16.2" thickBot="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="50" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="12"/>
@@ -1691,110 +1683,110 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
     </row>
     <row r="19" spans="1:12" ht="66.599999999999994" thickBot="1">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="34" t="s">
+      <c r="H19" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="35" t="s">
+      <c r="I19" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="35" t="s">
+      <c r="J19" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="59">
+      <c r="A20" s="56">
         <f>E5*700000</f>
         <v>16800000</v>
       </c>
-      <c r="B20" s="62">
+      <c r="B20" s="59">
         <v>43696</v>
       </c>
-      <c r="C20" s="62">
+      <c r="C20" s="59">
         <v>43705</v>
       </c>
-      <c r="D20" s="61">
+      <c r="D20" s="58">
         <v>43710</v>
       </c>
-      <c r="E20" s="78">
+      <c r="E20" s="75">
         <v>1820497</v>
       </c>
-      <c r="F20" s="78">
+      <c r="F20" s="75">
         <v>1923608</v>
       </c>
-      <c r="G20" s="75">
+      <c r="G20" s="72">
         <f t="shared" ref="G20" si="2">F20/A$20</f>
         <v>0.11450047619047619</v>
       </c>
-      <c r="H20" s="77">
+      <c r="H20" s="74">
         <f>A20-F20</f>
         <v>14876392</v>
       </c>
-      <c r="I20" s="63">
+      <c r="I20" s="60">
         <f>1-G20</f>
         <v>0.88549952380952379</v>
       </c>
-      <c r="J20" s="97"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A21" s="36"/>
-      <c r="B21" s="61">
+      <c r="A21" s="34"/>
+      <c r="B21" s="58">
         <v>43731</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="61">
+      <c r="D21" s="58">
         <v>43739</v>
       </c>
-      <c r="E21" s="78">
+      <c r="E21" s="75">
         <v>1542618</v>
       </c>
-      <c r="F21" s="78">
+      <c r="F21" s="75">
         <v>1630498</v>
       </c>
-      <c r="G21" s="75">
-        <f>F21/A$20</f>
+      <c r="G21" s="72">
+        <f t="shared" ref="G21:G26" si="3">F21/A$20</f>
         <v>9.7053452380952379E-2</v>
       </c>
-      <c r="H21" s="76">
-        <f t="shared" ref="H21:I21" si="3">H20-F21</f>
+      <c r="H21" s="73">
+        <f t="shared" ref="H21:I21" si="4">H20-F21</f>
         <v>13245894</v>
       </c>
       <c r="I21" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.78844607142857137</v>
       </c>
-      <c r="J21" s="98"/>
+      <c r="J21" s="95"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
@@ -1809,196 +1801,217 @@
       <c r="D22" s="9">
         <v>43752</v>
       </c>
-      <c r="E22" s="76">
+      <c r="E22" s="73">
         <v>1981511</v>
       </c>
-      <c r="F22" s="76">
+      <c r="F22" s="73">
         <v>2047806</v>
       </c>
-      <c r="G22" s="75">
-        <f>F22/A$20</f>
+      <c r="G22" s="72">
+        <f t="shared" si="3"/>
         <v>0.12189321428571429</v>
       </c>
-      <c r="H22" s="76">
-        <f t="shared" ref="H22" si="4">H21-F22</f>
+      <c r="H22" s="73">
+        <f t="shared" ref="H22" si="5">H21-F22</f>
         <v>11198088</v>
       </c>
       <c r="I22" s="22">
-        <f t="shared" ref="I22" si="5">I21-G22</f>
+        <f t="shared" ref="I22" si="6">I21-G22</f>
         <v>0.66655285714285706</v>
       </c>
-      <c r="J22" s="98"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="13"/>
-      <c r="B23" s="84">
+      <c r="B23" s="81">
         <v>43794</v>
       </c>
-      <c r="C23" s="84" t="s">
+      <c r="C23" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="84">
+      <c r="D23" s="81">
         <v>43801</v>
       </c>
-      <c r="E23" s="79">
+      <c r="E23" s="76">
         <v>1132292</v>
       </c>
-      <c r="F23" s="79">
+      <c r="F23" s="76">
         <v>1222524</v>
       </c>
-      <c r="G23" s="75">
-        <f>F23/A$20</f>
+      <c r="G23" s="72">
+        <f t="shared" si="3"/>
         <v>7.2769285714285717E-2</v>
       </c>
-      <c r="H23" s="76">
-        <f t="shared" ref="H23" si="6">H22-F23</f>
+      <c r="H23" s="73">
+        <f t="shared" ref="H23" si="7">H22-F23</f>
         <v>9975564</v>
       </c>
       <c r="I23" s="22">
-        <f t="shared" ref="I23" si="7">I22-G23</f>
+        <f t="shared" ref="I23" si="8">I22-G23</f>
         <v>0.5937835714285713</v>
       </c>
-      <c r="J23" s="98"/>
-      <c r="K23" s="56"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="53"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="13"/>
-      <c r="B24" s="84" t="s">
+      <c r="B24" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="84">
+      <c r="C24" s="81">
         <v>43808</v>
       </c>
-      <c r="D24" s="84">
+      <c r="D24" s="81">
         <v>43816</v>
       </c>
-      <c r="E24" s="76">
+      <c r="E24" s="73">
         <v>1804915</v>
       </c>
-      <c r="F24" s="76">
+      <c r="F24" s="73">
         <v>1859301</v>
       </c>
-      <c r="G24" s="85">
-        <f>F24/A$20</f>
+      <c r="G24" s="82">
+        <f t="shared" si="3"/>
         <v>0.11067267857142857</v>
       </c>
-      <c r="H24" s="76">
-        <f t="shared" ref="H24" si="8">H23-F24</f>
+      <c r="H24" s="73">
+        <f t="shared" ref="H24" si="9">H23-F24</f>
         <v>8116263</v>
       </c>
       <c r="I24" s="22">
-        <f t="shared" ref="I24" si="9">I23-G24</f>
+        <f t="shared" ref="I24" si="10">I23-G24</f>
         <v>0.4831108928571427</v>
       </c>
-      <c r="J24" s="98"/>
-      <c r="K24" s="57"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="54"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="13"/>
-      <c r="B25" s="84">
+      <c r="B25" s="81">
         <v>43851</v>
       </c>
-      <c r="C25" s="84">
+      <c r="C25" s="81">
         <v>43858</v>
       </c>
-      <c r="D25" s="84">
+      <c r="D25" s="81">
         <v>43859</v>
       </c>
-      <c r="E25" s="76">
+      <c r="E25" s="73">
         <v>1633513</v>
       </c>
-      <c r="F25" s="76">
+      <c r="F25" s="73">
         <v>1685369</v>
       </c>
-      <c r="G25" s="85">
-        <f>F25/A$20</f>
+      <c r="G25" s="82">
+        <f t="shared" si="3"/>
         <v>0.10031958333333334</v>
       </c>
-      <c r="H25" s="76">
-        <f t="shared" ref="H25" si="10">H24-F25</f>
+      <c r="H25" s="73">
+        <f t="shared" ref="H25" si="11">H24-F25</f>
         <v>6430894</v>
       </c>
       <c r="I25" s="22">
-        <f t="shared" ref="I25" si="11">I24-G25</f>
+        <f t="shared" ref="I25" si="12">I24-G25</f>
         <v>0.38279130952380935</v>
       </c>
-      <c r="J25" s="98">
+      <c r="J25" s="95">
         <v>249</v>
       </c>
-      <c r="K25" s="56"/>
+      <c r="K25" s="53"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="13"/>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="97"/>
-      <c r="K26" s="56"/>
+      <c r="B26" s="81">
+        <v>43896</v>
+      </c>
+      <c r="C26" s="81">
+        <v>43905</v>
+      </c>
+      <c r="D26" s="81">
+        <v>43906</v>
+      </c>
+      <c r="E26" s="73">
+        <v>2064615</v>
+      </c>
+      <c r="F26" s="73">
+        <v>2135526</v>
+      </c>
+      <c r="G26" s="82">
+        <f t="shared" si="3"/>
+        <v>0.12711464285714286</v>
+      </c>
+      <c r="H26" s="73">
+        <f t="shared" ref="H26" si="13">H25-F26</f>
+        <v>4295368</v>
+      </c>
+      <c r="I26" s="22">
+        <f t="shared" ref="I26" si="14">I25-G26</f>
+        <v>0.2556766666666665</v>
+      </c>
+      <c r="J26" s="94">
+        <v>249</v>
+      </c>
+      <c r="K26" s="53"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="13"/>
-      <c r="B27" s="84"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="76"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="73"/>
       <c r="I27" s="22"/>
-      <c r="J27" s="98"/>
-      <c r="K27" s="56"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="53"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="13"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="99"/>
-      <c r="K28" s="56"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="96"/>
+      <c r="K28" s="53"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="13"/>
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="56"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="96"/>
+      <c r="K29" s="53"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" ht="13.8" thickBot="1">
       <c r="A30" s="14"/>
-      <c r="B30" s="89"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="100"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="97"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
@@ -2009,29 +2022,29 @@
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="17"/>
-      <c r="E31" s="82">
+      <c r="E31" s="79">
         <f>SUM(E20:E30)</f>
-        <v>9915346</v>
-      </c>
-      <c r="F31" s="83">
+        <v>11979961</v>
+      </c>
+      <c r="F31" s="80">
         <f>SUM(F20:F30)</f>
-        <v>10369106</v>
+        <v>12504632</v>
       </c>
       <c r="G31" s="21">
         <f>SUM(G20:G30)</f>
-        <v>0.61720869047619042</v>
+        <v>0.74432333333333323</v>
       </c>
       <c r="H31" s="18">
         <f>A20-F31</f>
-        <v>6430894</v>
+        <v>4295368</v>
       </c>
       <c r="I31" s="24">
         <f>1-G31</f>
-        <v>0.38279130952380958</v>
-      </c>
-      <c r="J31" s="101"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
+        <v>0.25567666666666677</v>
+      </c>
+      <c r="J31" s="98"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1"/>
@@ -2046,12 +2059,12 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="109" t="s">
+      <c r="A35" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="109"/>
-      <c r="C35" s="109"/>
-      <c r="D35" s="109"/>
+      <c r="B35" s="108"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="108"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2060,10 +2073,10 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="106" t="s">
+      <c r="A36" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="106"/>
+      <c r="B36" s="105"/>
       <c r="C36" s="10" t="s">
         <v>15</v>
       </c>
@@ -2078,27 +2091,27 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="104">
+      <c r="A37" s="103">
         <f>A20-F31</f>
-        <v>6430894</v>
-      </c>
-      <c r="B37" s="105"/>
-      <c r="C37" s="60">
+        <v>4295368</v>
+      </c>
+      <c r="B37" s="104"/>
+      <c r="C37" s="57">
         <f>1-G31</f>
-        <v>0.38279130952380958</v>
+        <v>0.25567666666666677</v>
       </c>
       <c r="D37" s="19">
         <f>(C37/0.8)*100</f>
-        <v>47.848913690476195</v>
-      </c>
-      <c r="E37" s="74" t="s">
+        <v>31.959583333333345</v>
+      </c>
+      <c r="E37" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="74"/>
-      <c r="J37" s="74"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="71"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1"/>
@@ -2136,113 +2149,113 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="44"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="102"/>
-      <c r="J41" s="103"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="101"/>
+      <c r="J41" s="102"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="45"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="46"/>
+      <c r="A42" s="42"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="46"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="43"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="45"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="46"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="43"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="45"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="46"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="46"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="43"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="45"/>
-      <c r="B45" s="46"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="46"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="43"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="45"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="46"/>
+      <c r="A46" s="42"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="46"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="43"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="45"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="48"/>
+      <c r="A47" s="42"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="45"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="46"/>
+      <c r="A48" s="42"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="43"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="45"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="46"/>
+      <c r="A49" s="42"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="43"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="45"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="46"/>
+      <c r="A50" s="42"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="46"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="43"/>
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="1"/>
-      <c r="B51" s="110"/>
-      <c r="C51" s="110"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="50"/>
+      <c r="B51" s="109"/>
+      <c r="C51" s="109"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="47"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -2250,40 +2263,40 @@
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="44"/>
-      <c r="B52" s="44"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="102"/>
-      <c r="J52" s="103"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="101"/>
+      <c r="J52" s="102"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="45"/>
+      <c r="A53" s="42"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="47"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="107"/>
-      <c r="J53" s="107"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="106"/>
+      <c r="J53" s="106"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="45"/>
+      <c r="A54" s="42"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="107"/>
-      <c r="J54" s="107"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="106"/>
+      <c r="J54" s="106"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1"/>
@@ -2296,12 +2309,12 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="B60" s="102"/>
-      <c r="C60" s="103"/>
+      <c r="B60" s="101"/>
+      <c r="C60" s="102"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="102"/>
-      <c r="C67" s="103"/>
+      <c r="B67" s="101"/>
+      <c r="C67" s="102"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/1. XXI-В-28-2-350-1 (Калина 0,35 л.) Часть 1.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/1. XXI-В-28-2-350-1 (Калина 0,35 л.) Часть 1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Бутылки\Водочные\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4724600-A0DD-4B90-961D-9A437221658F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="12" windowWidth="18780" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,14 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$37</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -152,7 +160,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
@@ -160,7 +168,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -898,6 +906,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -907,20 +929,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1018,6 +1026,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1053,6 +1078,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1228,56 +1270,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="107" t="s">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="111" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
       <c r="F2" s="25"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1285,7 +1327,7 @@
       <c r="L2" s="26"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="16.2" thickBot="1">
+    <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1297,7 +1339,7 @@
       <c r="K3" s="26"/>
       <c r="M3" s="12"/>
     </row>
-    <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1">
+    <row r="4" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>0</v>
       </c>
@@ -1325,7 +1367,7 @@
       <c r="K4" s="67"/>
       <c r="L4" s="67"/>
     </row>
-    <row r="5" spans="1:13" ht="15.6">
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="35">
         <v>1</v>
       </c>
@@ -1352,7 +1394,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="62"/>
     </row>
-    <row r="6" spans="1:13" ht="15.6">
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="37">
         <f>A5+1</f>
         <v>2</v>
@@ -1380,7 +1422,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:13" ht="15.6">
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="37">
         <f t="shared" ref="A7:A16" si="1">A6+1</f>
         <v>3</v>
@@ -1408,7 +1450,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="62"/>
     </row>
-    <row r="8" spans="1:13" ht="15.6">
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A8" s="37">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1436,7 +1478,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="62"/>
     </row>
-    <row r="9" spans="1:13" ht="15.6">
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A9" s="37">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1464,7 +1506,7 @@
       <c r="K9" s="45"/>
       <c r="L9" s="62"/>
     </row>
-    <row r="10" spans="1:13" ht="15.6">
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A10" s="37">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1492,7 +1534,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="62"/>
     </row>
-    <row r="11" spans="1:13" ht="15.6">
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A11" s="37">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1525,7 +1567,7 @@
       <c r="L11" s="62"/>
       <c r="M11" s="23"/>
     </row>
-    <row r="12" spans="1:13" ht="17.25" customHeight="1">
+    <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1554,7 +1596,7 @@
       <c r="L12" s="62"/>
       <c r="M12" s="23"/>
     </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1584,7 +1626,7 @@
       <c r="K13" s="45"/>
       <c r="L13" s="62"/>
     </row>
-    <row r="14" spans="1:13" ht="18" customHeight="1">
+    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1612,7 +1654,7 @@
       <c r="K14" s="45"/>
       <c r="L14" s="62"/>
     </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1642,7 +1684,7 @@
       <c r="K15" s="45"/>
       <c r="L15" s="62"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" customHeight="1">
+    <row r="16" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1659,7 +1701,7 @@
       <c r="K16" s="45"/>
       <c r="L16" s="62"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="49"/>
       <c r="B17" s="48"/>
       <c r="C17" s="1"/>
@@ -1671,7 +1713,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:12" ht="16.2" thickBot="1">
+    <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="50" t="s">
         <v>8</v>
@@ -1687,7 +1729,7 @@
       <c r="K18" s="51"/>
       <c r="L18" s="51"/>
     </row>
-    <row r="19" spans="1:12" ht="66.599999999999994" thickBot="1">
+    <row r="19" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>20</v>
       </c>
@@ -1721,7 +1763,7 @@
       <c r="K19" s="52"/>
       <c r="L19" s="52"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="56">
         <f>E5*700000</f>
         <v>16800000</v>
@@ -1757,7 +1799,7 @@
       <c r="K20" s="45"/>
       <c r="L20" s="45"/>
     </row>
-    <row r="21" spans="1:12" ht="12.75" customHeight="1">
+    <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="34"/>
       <c r="B21" s="58">
         <v>43731</v>
@@ -1775,7 +1817,7 @@
         <v>1630498</v>
       </c>
       <c r="G21" s="72">
-        <f t="shared" ref="G21:G26" si="3">F21/A$20</f>
+        <f t="shared" ref="G21:G27" si="3">F21/A$20</f>
         <v>9.7053452380952379E-2</v>
       </c>
       <c r="H21" s="73">
@@ -1790,7 +1832,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" ht="12.75" customHeight="1">
+    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="9" t="s">
         <v>38</v>
@@ -1823,7 +1865,7 @@
       <c r="K22" s="45"/>
       <c r="L22" s="45"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="81">
         <v>43794</v>
@@ -1856,7 +1898,7 @@
       <c r="K23" s="53"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="81" t="s">
         <v>38</v>
@@ -1889,7 +1931,7 @@
       <c r="K24" s="54"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="81">
         <v>43851</v>
@@ -1924,7 +1966,7 @@
       <c r="K25" s="53"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="81">
         <v>43896</v>
@@ -1959,21 +2001,42 @@
       <c r="K26" s="53"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
-      <c r="B27" s="81"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="95"/>
+      <c r="B27" s="81">
+        <v>43937</v>
+      </c>
+      <c r="C27" s="81">
+        <v>43951</v>
+      </c>
+      <c r="D27" s="81">
+        <v>43958</v>
+      </c>
+      <c r="E27" s="73">
+        <v>3038490</v>
+      </c>
+      <c r="F27" s="73">
+        <v>3195399</v>
+      </c>
+      <c r="G27" s="82">
+        <f t="shared" si="3"/>
+        <v>0.19020232142857144</v>
+      </c>
+      <c r="H27" s="73">
+        <f t="shared" ref="H27" si="15">H26-F27</f>
+        <v>1099969</v>
+      </c>
+      <c r="I27" s="22">
+        <f t="shared" ref="I27" si="16">I26-G27</f>
+        <v>6.5474345238095061E-2</v>
+      </c>
+      <c r="J27" s="95">
+        <v>251</v>
+      </c>
       <c r="K27" s="53"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="81"/>
       <c r="C28" s="81"/>
@@ -1987,7 +2050,7 @@
       <c r="K28" s="53"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="81"/>
       <c r="C29" s="81"/>
@@ -2001,7 +2064,7 @@
       <c r="K29" s="53"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="13.8" thickBot="1">
+    <row r="30" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="86"/>
       <c r="C30" s="86"/>
@@ -2015,7 +2078,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" ht="13.8" thickBot="1">
+    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>24</v>
       </c>
@@ -2024,29 +2087,29 @@
       <c r="D31" s="17"/>
       <c r="E31" s="79">
         <f>SUM(E20:E30)</f>
-        <v>11979961</v>
+        <v>15018451</v>
       </c>
       <c r="F31" s="80">
         <f>SUM(F20:F30)</f>
-        <v>12504632</v>
+        <v>15700031</v>
       </c>
       <c r="G31" s="21">
         <f>SUM(G20:G30)</f>
-        <v>0.74432333333333323</v>
+        <v>0.93452565476190463</v>
       </c>
       <c r="H31" s="18">
         <f>A20-F31</f>
-        <v>4295368</v>
+        <v>1099969</v>
       </c>
       <c r="I31" s="24">
         <f>1-G31</f>
-        <v>0.25567666666666677</v>
+        <v>6.5474345238095366E-2</v>
       </c>
       <c r="J31" s="98"/>
       <c r="K31" s="55"/>
       <c r="L31" s="55"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2058,13 +2121,13 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="108" t="s">
+    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="108"/>
-      <c r="C35" s="108"/>
-      <c r="D35" s="108"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="102"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2072,11 +2135,11 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="105" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="105"/>
+      <c r="B36" s="111"/>
       <c r="C36" s="10" t="s">
         <v>15</v>
       </c>
@@ -2090,19 +2153,19 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="103">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="109">
         <f>A20-F31</f>
-        <v>4295368</v>
-      </c>
-      <c r="B37" s="104"/>
+        <v>1099969</v>
+      </c>
+      <c r="B37" s="110"/>
       <c r="C37" s="57">
         <f>1-G31</f>
-        <v>0.25567666666666677</v>
+        <v>6.5474345238095366E-2</v>
       </c>
       <c r="D37" s="19">
         <f>(C37/0.8)*100</f>
-        <v>31.959583333333345</v>
+        <v>8.1842931547619209</v>
       </c>
       <c r="E37" s="71" t="s">
         <v>37</v>
@@ -2113,7 +2176,7 @@
       <c r="I37" s="71"/>
       <c r="J37" s="71"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2121,7 +2184,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2136,7 +2199,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.6">
+    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2148,7 +2211,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="41"/>
       <c r="B41" s="41"/>
       <c r="C41" s="41"/>
@@ -2157,10 +2220,10 @@
       <c r="F41" s="41"/>
       <c r="G41" s="41"/>
       <c r="H41" s="41"/>
-      <c r="I41" s="101"/>
-      <c r="J41" s="102"/>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="I41" s="107"/>
+      <c r="J41" s="108"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="42"/>
       <c r="B42" s="43"/>
       <c r="C42" s="43"/>
@@ -2170,7 +2233,7 @@
       <c r="G42" s="44"/>
       <c r="H42" s="43"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="42"/>
       <c r="B43" s="43"/>
       <c r="C43" s="43"/>
@@ -2180,7 +2243,7 @@
       <c r="G43" s="44"/>
       <c r="H43" s="43"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="42"/>
       <c r="B44" s="43"/>
       <c r="C44" s="43"/>
@@ -2190,7 +2253,7 @@
       <c r="G44" s="44"/>
       <c r="H44" s="43"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="42"/>
       <c r="B45" s="43"/>
       <c r="C45" s="43"/>
@@ -2200,7 +2263,7 @@
       <c r="G45" s="44"/>
       <c r="H45" s="43"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="42"/>
       <c r="B46" s="43"/>
       <c r="C46" s="43"/>
@@ -2210,7 +2273,7 @@
       <c r="G46" s="44"/>
       <c r="H46" s="43"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="42"/>
       <c r="B47" s="43"/>
       <c r="C47" s="45"/>
@@ -2220,7 +2283,7 @@
       <c r="G47" s="45"/>
       <c r="H47" s="45"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="42"/>
       <c r="B48" s="43"/>
       <c r="C48" s="43"/>
@@ -2230,7 +2293,7 @@
       <c r="G48" s="44"/>
       <c r="H48" s="43"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="42"/>
       <c r="B49" s="43"/>
       <c r="C49" s="43"/>
@@ -2240,7 +2303,7 @@
       <c r="G49" s="44"/>
       <c r="H49" s="43"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="42"/>
       <c r="B50" s="43"/>
       <c r="C50" s="43"/>
@@ -2250,11 +2313,11 @@
       <c r="G50" s="44"/>
       <c r="H50" s="43"/>
     </row>
-    <row r="51" spans="1:10" ht="15.6">
+    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="109"/>
-      <c r="C51" s="109"/>
-      <c r="D51" s="110"/>
+      <c r="B51" s="104"/>
+      <c r="C51" s="104"/>
+      <c r="D51" s="105"/>
       <c r="E51" s="47"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2262,7 +2325,7 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="41"/>
       <c r="B52" s="41"/>
       <c r="C52" s="41"/>
@@ -2271,10 +2334,10 @@
       <c r="F52" s="41"/>
       <c r="G52" s="41"/>
       <c r="H52" s="41"/>
-      <c r="I52" s="101"/>
-      <c r="J52" s="102"/>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="I52" s="107"/>
+      <c r="J52" s="108"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="42"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2283,10 +2346,10 @@
       <c r="F53" s="44"/>
       <c r="G53" s="44"/>
       <c r="H53" s="43"/>
-      <c r="I53" s="106"/>
-      <c r="J53" s="106"/>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="I53" s="103"/>
+      <c r="J53" s="103"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="42"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2295,10 +2358,10 @@
       <c r="F54" s="45"/>
       <c r="G54" s="45"/>
       <c r="H54" s="45"/>
-      <c r="I54" s="106"/>
-      <c r="J54" s="106"/>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="I54" s="103"/>
+      <c r="J54" s="103"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2308,24 +2371,19 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="60" spans="1:10">
-      <c r="B60" s="101"/>
-      <c r="C60" s="102"/>
-    </row>
-    <row r="67" spans="2:3">
-      <c r="B67" s="101"/>
-      <c r="C67" s="102"/>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B60" s="107"/>
+      <c r="C60" s="108"/>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B67" s="107"/>
+      <c r="C67" s="108"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A36:B36"/>
@@ -2333,11 +2391,16 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="94" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="91" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="37" max="12" man="1"/>
@@ -2346,12 +2409,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2360,24 +2423,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/1. XXI-В-28-2-350-1 (Калина 0,35 л.) Часть 1.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/1. XXI-В-28-2-350-1 (Калина 0,35 л.) Часть 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Бутылки\Водочные\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4724600-A0DD-4B90-961D-9A437221658F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D141CBD3-FABD-4C48-A615-4AB3BCB23B75}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -731,15 +731,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -788,9 +779,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -905,6 +893,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1274,16 +1274,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
@@ -1361,20 +1361,20 @@
       <c r="G4" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="63"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="35">
         <v>1</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="91" t="s">
+      <c r="C5" s="87" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="36">
@@ -1383,26 +1383,26 @@
       <c r="E5" s="36">
         <v>24</v>
       </c>
-      <c r="F5" s="99"/>
+      <c r="F5" s="95"/>
       <c r="G5" s="36">
         <f>E5-F5</f>
         <v>24</v>
       </c>
-      <c r="H5" s="64"/>
-      <c r="I5" s="69"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="65"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="62"/>
+      <c r="L5" s="58"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="37">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="88" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="8">
@@ -1411,26 +1411,26 @@
       <c r="E6" s="8">
         <v>24</v>
       </c>
-      <c r="F6" s="100"/>
+      <c r="F6" s="96"/>
       <c r="G6" s="8">
         <f t="shared" ref="G6:G15" si="0">E6-F6</f>
         <v>24</v>
       </c>
-      <c r="H6" s="65"/>
-      <c r="I6" s="69"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="65"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="62"/>
+      <c r="L6" s="58"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="37">
         <f t="shared" ref="A7:A16" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="92" t="s">
+      <c r="C7" s="88" t="s">
         <v>34</v>
       </c>
       <c r="D7" s="8">
@@ -1439,26 +1439,26 @@
       <c r="E7" s="8">
         <v>32</v>
       </c>
-      <c r="F7" s="100"/>
+      <c r="F7" s="96"/>
       <c r="G7" s="8">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H7" s="66"/>
-      <c r="I7" s="69"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="65"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="62"/>
+      <c r="L7" s="58"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A8" s="37">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="92" t="s">
+      <c r="C8" s="88" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="8">
@@ -1467,26 +1467,26 @@
       <c r="E8" s="8">
         <v>32</v>
       </c>
-      <c r="F8" s="100"/>
+      <c r="F8" s="96"/>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H8" s="66"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="45"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="42"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="62"/>
+      <c r="L8" s="58"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A9" s="37">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="92" t="s">
+      <c r="C9" s="88" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="8">
@@ -1495,26 +1495,26 @@
       <c r="E9" s="8">
         <v>0</v>
       </c>
-      <c r="F9" s="100"/>
+      <c r="F9" s="96"/>
       <c r="G9" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9" s="66"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="58"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A10" s="37">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="92" t="s">
+      <c r="C10" s="88" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="8">
@@ -1523,26 +1523,26 @@
       <c r="E10" s="8">
         <v>0</v>
       </c>
-      <c r="F10" s="100"/>
+      <c r="F10" s="96"/>
       <c r="G10" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="66"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="45"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="42"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="62"/>
+      <c r="L10" s="58"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A11" s="37">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="92" t="s">
+      <c r="C11" s="88" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="8">
@@ -1551,20 +1551,20 @@
       <c r="E11" s="8">
         <v>120</v>
       </c>
-      <c r="F11" s="100">
+      <c r="F11" s="96">
         <v>31</v>
       </c>
       <c r="G11" s="8">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
-      <c r="H11" s="66" t="s">
+      <c r="H11" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="70"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="62"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="58"/>
       <c r="M11" s="23"/>
     </row>
     <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1572,10 +1572,10 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="92" t="s">
+      <c r="C12" s="88" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="8">
@@ -1584,27 +1584,27 @@
       <c r="E12" s="8">
         <v>0</v>
       </c>
-      <c r="F12" s="100"/>
+      <c r="F12" s="96"/>
       <c r="G12" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="66"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="58"/>
       <c r="M12" s="23"/>
     </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A13" s="37">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="92" t="s">
+      <c r="C13" s="88" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="8">
@@ -1613,28 +1613,28 @@
       <c r="E13" s="8">
         <v>0</v>
       </c>
-      <c r="F13" s="100"/>
+      <c r="F13" s="96"/>
       <c r="G13" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="66" t="s">
+      <c r="H13" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="70"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="62"/>
-    </row>
-    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I13" s="66"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="58"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" s="37">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="92" t="s">
+      <c r="C14" s="88" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="8">
@@ -1643,26 +1643,26 @@
       <c r="E14" s="8">
         <v>50</v>
       </c>
-      <c r="F14" s="100"/>
+      <c r="F14" s="96"/>
       <c r="G14" s="8">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H14" s="66"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="62"/>
-    </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H14" s="62"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="58"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A15" s="37">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="93" t="s">
+      <c r="C15" s="89" t="s">
         <v>34</v>
       </c>
       <c r="D15" s="8">
@@ -1671,39 +1671,39 @@
       <c r="E15" s="11">
         <v>60</v>
       </c>
-      <c r="F15" s="100">
+      <c r="F15" s="96">
         <v>5</v>
       </c>
       <c r="G15" s="8">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="H15" s="66"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="58"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="61"/>
+      <c r="B16" s="100"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="11"/>
       <c r="F16" s="20"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="58"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="49"/>
-      <c r="B17" s="48"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1715,7 +1715,7 @@
     </row>
     <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="47" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="12"/>
@@ -1725,9 +1725,9 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
     </row>
     <row r="19" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
@@ -1760,67 +1760,67 @@
       <c r="J19" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="56">
+      <c r="A20" s="53">
         <f>E5*700000</f>
         <v>16800000</v>
       </c>
-      <c r="B20" s="59">
+      <c r="B20" s="56">
         <v>43696</v>
       </c>
-      <c r="C20" s="59">
+      <c r="C20" s="56">
         <v>43705</v>
       </c>
-      <c r="D20" s="58">
+      <c r="D20" s="55">
         <v>43710</v>
       </c>
-      <c r="E20" s="75">
+      <c r="E20" s="71">
         <v>1820497</v>
       </c>
-      <c r="F20" s="75">
+      <c r="F20" s="71">
         <v>1923608</v>
       </c>
-      <c r="G20" s="72">
+      <c r="G20" s="68">
         <f t="shared" ref="G20" si="2">F20/A$20</f>
         <v>0.11450047619047619</v>
       </c>
-      <c r="H20" s="74">
+      <c r="H20" s="70">
         <f>A20-F20</f>
         <v>14876392</v>
       </c>
-      <c r="I20" s="60">
+      <c r="I20" s="57">
         <f>1-G20</f>
         <v>0.88549952380952379</v>
       </c>
-      <c r="J20" s="94"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="34"/>
-      <c r="B21" s="58">
+      <c r="B21" s="55">
         <v>43731</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="58">
+      <c r="D21" s="55">
         <v>43739</v>
       </c>
-      <c r="E21" s="75">
+      <c r="E21" s="71">
         <v>1542618</v>
       </c>
-      <c r="F21" s="75">
+      <c r="F21" s="71">
         <v>1630498</v>
       </c>
-      <c r="G21" s="72">
-        <f t="shared" ref="G21:G27" si="3">F21/A$20</f>
+      <c r="G21" s="68">
+        <f t="shared" ref="G21:G28" si="3">F21/A$20</f>
         <v>9.7053452380952379E-2</v>
       </c>
-      <c r="H21" s="73">
+      <c r="H21" s="69">
         <f t="shared" ref="H21:I21" si="4">H20-F21</f>
         <v>13245894</v>
       </c>
@@ -1828,7 +1828,7 @@
         <f t="shared" si="4"/>
         <v>0.78844607142857137</v>
       </c>
-      <c r="J21" s="95"/>
+      <c r="J21" s="91"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
@@ -1843,17 +1843,17 @@
       <c r="D22" s="9">
         <v>43752</v>
       </c>
-      <c r="E22" s="73">
+      <c r="E22" s="69">
         <v>1981511</v>
       </c>
-      <c r="F22" s="73">
+      <c r="F22" s="69">
         <v>2047806</v>
       </c>
-      <c r="G22" s="72">
+      <c r="G22" s="68">
         <f t="shared" si="3"/>
         <v>0.12189321428571429</v>
       </c>
-      <c r="H22" s="73">
+      <c r="H22" s="69">
         <f t="shared" ref="H22" si="5">H21-F22</f>
         <v>11198088</v>
       </c>
@@ -1861,32 +1861,32 @@
         <f t="shared" ref="I22" si="6">I21-G22</f>
         <v>0.66655285714285706</v>
       </c>
-      <c r="J22" s="95"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
-      <c r="B23" s="81">
+      <c r="B23" s="77">
         <v>43794</v>
       </c>
-      <c r="C23" s="81" t="s">
+      <c r="C23" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="81">
+      <c r="D23" s="77">
         <v>43801</v>
       </c>
-      <c r="E23" s="76">
+      <c r="E23" s="72">
         <v>1132292</v>
       </c>
-      <c r="F23" s="76">
+      <c r="F23" s="72">
         <v>1222524</v>
       </c>
-      <c r="G23" s="72">
+      <c r="G23" s="68">
         <f t="shared" si="3"/>
         <v>7.2769285714285717E-2</v>
       </c>
-      <c r="H23" s="73">
+      <c r="H23" s="69">
         <f t="shared" ref="H23" si="7">H22-F23</f>
         <v>9975564</v>
       </c>
@@ -1894,32 +1894,32 @@
         <f t="shared" ref="I23" si="8">I22-G23</f>
         <v>0.5937835714285713</v>
       </c>
-      <c r="J23" s="95"/>
-      <c r="K23" s="53"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="50"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
-      <c r="B24" s="81" t="s">
+      <c r="B24" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="81">
+      <c r="C24" s="77">
         <v>43808</v>
       </c>
-      <c r="D24" s="81">
+      <c r="D24" s="77">
         <v>43816</v>
       </c>
-      <c r="E24" s="73">
+      <c r="E24" s="69">
         <v>1804915</v>
       </c>
-      <c r="F24" s="73">
+      <c r="F24" s="69">
         <v>1859301</v>
       </c>
-      <c r="G24" s="82">
+      <c r="G24" s="78">
         <f t="shared" si="3"/>
         <v>0.11067267857142857</v>
       </c>
-      <c r="H24" s="73">
+      <c r="H24" s="69">
         <f t="shared" ref="H24" si="9">H23-F24</f>
         <v>8116263</v>
       </c>
@@ -1927,32 +1927,32 @@
         <f t="shared" ref="I24" si="10">I23-G24</f>
         <v>0.4831108928571427</v>
       </c>
-      <c r="J24" s="95"/>
-      <c r="K24" s="54"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="51"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
-      <c r="B25" s="81">
+      <c r="B25" s="77">
         <v>43851</v>
       </c>
-      <c r="C25" s="81">
+      <c r="C25" s="77">
         <v>43858</v>
       </c>
-      <c r="D25" s="81">
+      <c r="D25" s="77">
         <v>43859</v>
       </c>
-      <c r="E25" s="73">
+      <c r="E25" s="69">
         <v>1633513</v>
       </c>
-      <c r="F25" s="73">
+      <c r="F25" s="69">
         <v>1685369</v>
       </c>
-      <c r="G25" s="82">
+      <c r="G25" s="78">
         <f t="shared" si="3"/>
         <v>0.10031958333333334</v>
       </c>
-      <c r="H25" s="73">
+      <c r="H25" s="69">
         <f t="shared" ref="H25" si="11">H24-F25</f>
         <v>6430894</v>
       </c>
@@ -1960,34 +1960,34 @@
         <f t="shared" ref="I25" si="12">I24-G25</f>
         <v>0.38279130952380935</v>
       </c>
-      <c r="J25" s="95">
+      <c r="J25" s="91">
         <v>249</v>
       </c>
-      <c r="K25" s="53"/>
+      <c r="K25" s="50"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
-      <c r="B26" s="81">
+      <c r="B26" s="77">
         <v>43896</v>
       </c>
-      <c r="C26" s="81">
+      <c r="C26" s="77">
         <v>43905</v>
       </c>
-      <c r="D26" s="81">
+      <c r="D26" s="77">
         <v>43906</v>
       </c>
-      <c r="E26" s="73">
+      <c r="E26" s="69">
         <v>2064615</v>
       </c>
-      <c r="F26" s="73">
+      <c r="F26" s="69">
         <v>2135526</v>
       </c>
-      <c r="G26" s="82">
+      <c r="G26" s="78">
         <f t="shared" si="3"/>
         <v>0.12711464285714286</v>
       </c>
-      <c r="H26" s="73">
+      <c r="H26" s="69">
         <f t="shared" ref="H26" si="13">H25-F26</f>
         <v>4295368</v>
       </c>
@@ -1995,34 +1995,34 @@
         <f t="shared" ref="I26" si="14">I25-G26</f>
         <v>0.2556766666666665</v>
       </c>
-      <c r="J26" s="94">
+      <c r="J26" s="90">
         <v>249</v>
       </c>
-      <c r="K26" s="53"/>
+      <c r="K26" s="50"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
-      <c r="B27" s="81">
+      <c r="B27" s="77">
         <v>43937</v>
       </c>
-      <c r="C27" s="81">
+      <c r="C27" s="77">
         <v>43951</v>
       </c>
-      <c r="D27" s="81">
+      <c r="D27" s="77">
         <v>43958</v>
       </c>
-      <c r="E27" s="73">
+      <c r="E27" s="69">
         <v>3038490</v>
       </c>
-      <c r="F27" s="73">
+      <c r="F27" s="69">
         <v>3195399</v>
       </c>
-      <c r="G27" s="82">
+      <c r="G27" s="78">
         <f t="shared" si="3"/>
         <v>0.19020232142857144</v>
       </c>
-      <c r="H27" s="73">
+      <c r="H27" s="69">
         <f t="shared" ref="H27" si="15">H26-F27</f>
         <v>1099969</v>
       </c>
@@ -2030,161 +2030,177 @@
         <f t="shared" ref="I27" si="16">I26-G27</f>
         <v>6.5474345238095061E-2</v>
       </c>
-      <c r="J27" s="95">
+      <c r="J27" s="91">
         <v>251</v>
       </c>
-      <c r="K27" s="53"/>
+      <c r="K27" s="50"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
-      <c r="B28" s="81"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="53"/>
+      <c r="B28" s="77">
+        <v>43952</v>
+      </c>
+      <c r="C28" s="77">
+        <v>43954</v>
+      </c>
+      <c r="D28" s="77">
+        <v>43972</v>
+      </c>
+      <c r="E28" s="72">
+        <v>628474</v>
+      </c>
+      <c r="F28" s="69">
+        <v>644602</v>
+      </c>
+      <c r="G28" s="80">
+        <f t="shared" si="3"/>
+        <v>3.8369166666666669E-2</v>
+      </c>
+      <c r="H28" s="69">
+        <f t="shared" ref="H28" si="17">H27-F28</f>
+        <v>455367</v>
+      </c>
+      <c r="I28" s="22">
+        <f t="shared" ref="I28" si="18">I27-G28</f>
+        <v>2.7105178571428391E-2</v>
+      </c>
+      <c r="J28" s="92">
+        <v>249</v>
+      </c>
+      <c r="K28" s="50"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
-      <c r="B29" s="81"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="85"/>
-      <c r="J29" s="96"/>
-      <c r="K29" s="53"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="92"/>
+      <c r="K29" s="50"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="1"/>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="13"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="92"/>
+      <c r="K30" s="50"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="13"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="92"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="13"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="92"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="13"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="13"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="81"/>
+      <c r="J34" s="92"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="86"/>
+      <c r="J35" s="93"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="79">
-        <f>SUM(E20:E30)</f>
-        <v>15018451</v>
-      </c>
-      <c r="F31" s="80">
-        <f>SUM(F20:F30)</f>
-        <v>15700031</v>
-      </c>
-      <c r="G31" s="21">
-        <f>SUM(G20:G30)</f>
-        <v>0.93452565476190463</v>
-      </c>
-      <c r="H31" s="18">
-        <f>A20-F31</f>
-        <v>1099969</v>
-      </c>
-      <c r="I31" s="24">
-        <f>1-G31</f>
-        <v>6.5474345238095366E-2</v>
-      </c>
-      <c r="J31" s="98"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="102" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="102"/>
-      <c r="C35" s="102"/>
-      <c r="D35" s="102"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="111" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="111"/>
-      <c r="C36" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="109">
-        <f>A20-F31</f>
-        <v>1099969</v>
-      </c>
-      <c r="B37" s="110"/>
-      <c r="C37" s="57">
-        <f>1-G31</f>
-        <v>6.5474345238095366E-2</v>
-      </c>
-      <c r="D37" s="19">
-        <f>(C37/0.8)*100</f>
-        <v>8.1842931547619209</v>
-      </c>
-      <c r="E37" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="71"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="75">
+        <f>SUM(E20:E35)</f>
+        <v>15646925</v>
+      </c>
+      <c r="F36" s="76">
+        <f>SUM(F20:F35)</f>
+        <v>16344633</v>
+      </c>
+      <c r="G36" s="21">
+        <f>SUM(G20:G35)</f>
+        <v>0.97289482142857131</v>
+      </c>
+      <c r="H36" s="18">
+        <f>A20-F36</f>
+        <v>455367</v>
+      </c>
+      <c r="I36" s="24">
+        <f>1-G36</f>
+        <v>2.710517857142869E-2</v>
+      </c>
+      <c r="J36" s="94"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2195,15 +2211,14 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
-      <c r="K39" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="1"/>
+    </row>
+    <row r="40" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="102" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="102"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="102"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -2211,199 +2226,275 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="41"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="107"/>
-      <c r="J41" s="108"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="42"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="43"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="42"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="43"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="42"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="111"/>
+      <c r="C41" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="109">
+        <f>A20-F36</f>
+        <v>455367</v>
+      </c>
+      <c r="B42" s="110"/>
+      <c r="C42" s="54">
+        <f>1-G36</f>
+        <v>2.710517857142869E-2</v>
+      </c>
+      <c r="D42" s="19">
+        <f>(C42/0.8)*100</f>
+        <v>3.388147321428586</v>
+      </c>
+      <c r="E42" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="43"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="42"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="43"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="42"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="43"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="42"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="42"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="43"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="107"/>
+      <c r="J46" s="108"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="39"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="40"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="39"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="40"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="42"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="43"/>
+      <c r="A49" s="39"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="40"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="42"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="43"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="104"/>
-      <c r="C51" s="104"/>
-      <c r="D51" s="105"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
+      <c r="A50" s="39"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="40"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="39"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="40"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="41"/>
-      <c r="B52" s="41"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="107"/>
-      <c r="J52" s="108"/>
+      <c r="A52" s="39"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="42"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="103"/>
-      <c r="J53" s="103"/>
+      <c r="A53" s="39"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="40"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="42"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="103"/>
-      <c r="J54" s="103"/>
+      <c r="A54" s="39"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="40"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
+      <c r="A55" s="39"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="40"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="40"/>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="104"/>
+      <c r="C56" s="104"/>
+      <c r="D56" s="105"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="38"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="107"/>
+      <c r="J57" s="108"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="39"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="103"/>
+      <c r="J58" s="103"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="39"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="103"/>
+      <c r="J59" s="103"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B60" s="107"/>
-      <c r="C60" s="108"/>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B67" s="107"/>
-      <c r="C67" s="108"/>
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B65" s="107"/>
+      <c r="C65" s="108"/>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B72" s="107"/>
+      <c r="C72" s="108"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I58:J58"/>
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="B56:D56"/>
     <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="91" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="83" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="37" max="12" man="1"/>
+    <brk id="42" max="12" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/1. XXI-В-28-2-350-1 (Калина 0,35 л.) Часть 1.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/1. XXI-В-28-2-350-1 (Калина 0,35 л.) Часть 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Бутылки\Водочные\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D141CBD3-FABD-4C48-A615-4AB3BCB23B75}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624561A6-D5E9-48F0-84CF-7B0C4ADC13BB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1277,7 +1277,7 @@
   <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1817,7 +1817,7 @@
         <v>1630498</v>
       </c>
       <c r="G21" s="68">
-        <f t="shared" ref="G21:G28" si="3">F21/A$20</f>
+        <f t="shared" ref="G21:G29" si="3">F21/A$20</f>
         <v>9.7053452380952379E-2</v>
       </c>
       <c r="H21" s="69">
@@ -2073,15 +2073,36 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="92"/>
+      <c r="B29" s="77">
+        <v>43997</v>
+      </c>
+      <c r="C29" s="77">
+        <v>44005</v>
+      </c>
+      <c r="D29" s="77">
+        <v>44006</v>
+      </c>
+      <c r="E29" s="72">
+        <v>1784139</v>
+      </c>
+      <c r="F29" s="69">
+        <v>1877005</v>
+      </c>
+      <c r="G29" s="80">
+        <f t="shared" si="3"/>
+        <v>0.11172648809523809</v>
+      </c>
+      <c r="H29" s="69">
+        <f t="shared" ref="H29" si="19">H28-F29</f>
+        <v>-1421638</v>
+      </c>
+      <c r="I29" s="22">
+        <f t="shared" ref="I29" si="20">I28-G29</f>
+        <v>-8.4621309523809696E-2</v>
+      </c>
+      <c r="J29" s="92">
+        <v>252</v>
+      </c>
       <c r="K29" s="50"/>
       <c r="L29" s="1"/>
     </row>
@@ -2178,23 +2199,23 @@
       <c r="D36" s="17"/>
       <c r="E36" s="75">
         <f>SUM(E20:E35)</f>
-        <v>15646925</v>
+        <v>17431064</v>
       </c>
       <c r="F36" s="76">
         <f>SUM(F20:F35)</f>
-        <v>16344633</v>
+        <v>18221638</v>
       </c>
       <c r="G36" s="21">
         <f>SUM(G20:G35)</f>
-        <v>0.97289482142857131</v>
+        <v>1.0846213095238093</v>
       </c>
       <c r="H36" s="18">
         <f>A20-F36</f>
-        <v>455367</v>
+        <v>-1421638</v>
       </c>
       <c r="I36" s="24">
         <f>1-G36</f>
-        <v>2.710517857142869E-2</v>
+        <v>-8.4621309523809307E-2</v>
       </c>
       <c r="J36" s="94"/>
       <c r="K36" s="52"/>
@@ -2247,16 +2268,16 @@
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="109">
         <f>A20-F36</f>
-        <v>455367</v>
+        <v>-1421638</v>
       </c>
       <c r="B42" s="110"/>
       <c r="C42" s="54">
         <f>1-G36</f>
-        <v>2.710517857142869E-2</v>
+        <v>-8.4621309523809307E-2</v>
       </c>
       <c r="D42" s="19">
         <f>(C42/0.8)*100</f>
-        <v>3.388147321428586</v>
+        <v>-10.577663690476163</v>
       </c>
       <c r="E42" s="67" t="s">
         <v>37</v>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/1. XXI-В-28-2-350-1 (Калина 0,35 л.) Часть 1.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/1. XXI-В-28-2-350-1 (Калина 0,35 л.) Часть 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Бутылки\Водочные\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624561A6-D5E9-48F0-84CF-7B0C4ADC13BB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF443BA7-AB1A-44C0-A2F9-6C32C1E2244B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1276,8 +1276,8 @@
   </sheetPr>
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1817,7 +1817,7 @@
         <v>1630498</v>
       </c>
       <c r="G21" s="68">
-        <f t="shared" ref="G21:G29" si="3">F21/A$20</f>
+        <f t="shared" ref="G21:G30" si="3">F21/A$20</f>
         <v>9.7053452380952379E-2</v>
       </c>
       <c r="H21" s="69">
@@ -2108,15 +2108,36 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="81"/>
-      <c r="J30" s="92"/>
+      <c r="B30" s="77">
+        <v>44046</v>
+      </c>
+      <c r="C30" s="77">
+        <v>44059</v>
+      </c>
+      <c r="D30" s="77">
+        <v>44070</v>
+      </c>
+      <c r="E30" s="72">
+        <v>2867088</v>
+      </c>
+      <c r="F30" s="69">
+        <v>2987384</v>
+      </c>
+      <c r="G30" s="80">
+        <f t="shared" si="3"/>
+        <v>0.1778204761904762</v>
+      </c>
+      <c r="H30" s="69">
+        <f t="shared" ref="H30" si="21">H29-F30</f>
+        <v>-4409022</v>
+      </c>
+      <c r="I30" s="22">
+        <f t="shared" ref="I30" si="22">I29-G30</f>
+        <v>-0.26244178571428589</v>
+      </c>
+      <c r="J30" s="92">
+        <v>252</v>
+      </c>
       <c r="K30" s="50"/>
       <c r="L30" s="1"/>
     </row>
@@ -2199,23 +2220,23 @@
       <c r="D36" s="17"/>
       <c r="E36" s="75">
         <f>SUM(E20:E35)</f>
-        <v>17431064</v>
+        <v>20298152</v>
       </c>
       <c r="F36" s="76">
         <f>SUM(F20:F35)</f>
-        <v>18221638</v>
+        <v>21209022</v>
       </c>
       <c r="G36" s="21">
         <f>SUM(G20:G35)</f>
-        <v>1.0846213095238093</v>
+        <v>1.2624417857142856</v>
       </c>
       <c r="H36" s="18">
         <f>A20-F36</f>
-        <v>-1421638</v>
+        <v>-4409022</v>
       </c>
       <c r="I36" s="24">
         <f>1-G36</f>
-        <v>-8.4621309523809307E-2</v>
+        <v>-0.26244178571428556</v>
       </c>
       <c r="J36" s="94"/>
       <c r="K36" s="52"/>
@@ -2268,16 +2289,16 @@
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="109">
         <f>A20-F36</f>
-        <v>-1421638</v>
+        <v>-4409022</v>
       </c>
       <c r="B42" s="110"/>
       <c r="C42" s="54">
         <f>1-G36</f>
-        <v>-8.4621309523809307E-2</v>
+        <v>-0.26244178571428556</v>
       </c>
       <c r="D42" s="19">
         <f>(C42/0.8)*100</f>
-        <v>-10.577663690476163</v>
+        <v>-32.805223214285697</v>
       </c>
       <c r="E42" s="67" t="s">
         <v>37</v>
